--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>907343.1053217287</v>
+        <v>908455.7033855462</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11935776.98076834</v>
+        <v>11935776.98076833</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7059813.065401048</v>
+        <v>7059813.065401042</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>256.1992711418444</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T2" t="n">
-        <v>9.14955283688535</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269788</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
         <v>20.22295923705011</v>
@@ -789,7 +789,7 @@
         <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0665623188231</v>
       </c>
       <c r="U3" t="n">
         <v>225.8092030868072</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>144.8586974472236</v>
+        <v>61.18421556648293</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>71.03267489408326</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.7615986905863</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.781160222249856</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>103.3387326418234</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>150.9308355306601</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>53.96736632881028</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>95.65910954404444</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>144.8586974472234</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>411.3149546900107</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>298.6349212579627</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>56.7368922048004</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.6393302471496</v>
       </c>
       <c r="U11" t="n">
-        <v>89.91122001604653</v>
+        <v>251.0266302818266</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>29.20388404677965</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>91.62885864211169</v>
       </c>
       <c r="I12" t="n">
-        <v>15.93537176334949</v>
+        <v>15.93537176334948</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>132.0515226060088</v>
       </c>
       <c r="T12" t="n">
-        <v>191.5646141801806</v>
+        <v>191.5646141801805</v>
       </c>
       <c r="U12" t="n">
         <v>225.8010102445008</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>62.81738442484505</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>96.86324390258108</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>192.8430046870357</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.3026114029971</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2214594242532</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>24.76280147906175</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>172.8756361020872</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.3149546900107</v>
       </c>
       <c r="H14" t="n">
-        <v>171.4888087548242</v>
+        <v>298.6349212579627</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.2098652488057</v>
       </c>
       <c r="H15" t="n">
-        <v>91.62885864211169</v>
+        <v>91.62885864211168</v>
       </c>
       <c r="I15" t="n">
-        <v>15.93537176334948</v>
+        <v>15.93537176334947</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>101.6569189535546</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>96.86324390258108</v>
+        <v>96.86324390258106</v>
       </c>
       <c r="S16" t="n">
         <v>192.8430046870357</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.1881684958369</v>
+        <v>8.531249542282298</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.3149546900107</v>
       </c>
       <c r="H17" t="n">
-        <v>298.6349212579627</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.59239047644859</v>
+        <v>56.73689220480037</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>205.6393302471496</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0266302818266</v>
+        <v>46.42822842899354</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1938,10 @@
         <v>135.2098652488057</v>
       </c>
       <c r="H18" t="n">
-        <v>91.62885864211169</v>
+        <v>91.62885864211168</v>
       </c>
       <c r="I18" t="n">
-        <v>15.93537176334948</v>
+        <v>15.93537176334947</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>72.00893644364459</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>101.6569189535546</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>96.86324390258108</v>
+        <v>96.86324390258106</v>
       </c>
       <c r="S19" t="n">
         <v>192.8430046870357</v>
@@ -2056,10 +2056,10 @@
         <v>220.3026114029971</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2214594242532</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>110.1881684958369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.3149546900107</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>298.6349212579627</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.8914434752892</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>205.6393302471496</v>
       </c>
       <c r="U20" t="n">
-        <v>171.4888087548249</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,10 +2175,10 @@
         <v>135.2098652488057</v>
       </c>
       <c r="H21" t="n">
-        <v>91.62885864211169</v>
+        <v>91.62885864211168</v>
       </c>
       <c r="I21" t="n">
-        <v>15.93537176334948</v>
+        <v>15.93537176334947</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>131.6410436716559</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2021972674347</v>
+        <v>152.4221929161601</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>93.3823052637143</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.3149546900107</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>118.1484684587248</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>235.672977800669</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2412,10 +2412,10 @@
         <v>135.2098652488057</v>
       </c>
       <c r="H24" t="n">
-        <v>91.62885864211169</v>
+        <v>91.62885864211168</v>
       </c>
       <c r="I24" t="n">
-        <v>15.93537176334948</v>
+        <v>15.93537176334947</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>159.5322111057853</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.477783551422103</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.3026114029971</v>
@@ -2533,7 +2533,7 @@
         <v>286.2214594242532</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,16 +2564,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.3149546900107</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>298.6349212579627</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.312941093728847</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>118.1484684587248</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>205.6393302471496</v>
       </c>
       <c r="U26" t="n">
-        <v>229.9744889407435</v>
+        <v>251.0266302818266</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>135.2098652488057</v>
       </c>
       <c r="H27" t="n">
-        <v>91.62885864211169</v>
+        <v>91.62885864211168</v>
       </c>
       <c r="I27" t="n">
-        <v>15.93537176334948</v>
+        <v>15.93537176334947</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2021972674347</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.3232735526989</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>101.6569189535546</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>96.86324390258108</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>23.589177974466</v>
+        <v>83.9021852844717</v>
       </c>
       <c r="T28" t="n">
         <v>220.3026114029971</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2214594242532</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.3149546900107</v>
       </c>
       <c r="H29" t="n">
-        <v>298.6349212579627</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>63.04677906443507</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0266302818266</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>88.77671569657055</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2886,10 +2886,10 @@
         <v>135.2098652488057</v>
       </c>
       <c r="H30" t="n">
-        <v>91.62885864211169</v>
+        <v>91.62885864211168</v>
       </c>
       <c r="I30" t="n">
-        <v>15.93537176334948</v>
+        <v>15.93537176334947</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>34.87580108679047</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>96.86324390258108</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>192.8430046870357</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>220.3026114029971</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.1881684958368</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>411.3149546900107</v>
       </c>
       <c r="H32" t="n">
-        <v>11.07477660672226</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>56.7368922048004</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>78.4454101208742</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>205.6393302471496</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0266302818266</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3123,10 +3123,10 @@
         <v>135.2098652488057</v>
       </c>
       <c r="H33" t="n">
-        <v>91.62885864211169</v>
+        <v>91.62885864211168</v>
       </c>
       <c r="I33" t="n">
-        <v>15.93537176334948</v>
+        <v>15.93537176334947</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.2021972674347</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>146.3232735526989</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>101.6569189535546</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>96.86324390258108</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>192.8430046870357</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.3026114029971</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2214594242532</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>24.76280147906243</v>
       </c>
       <c r="X34" t="n">
-        <v>156.0658437029368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>411.3149546900107</v>
       </c>
       <c r="H35" t="n">
-        <v>90.71469160726538</v>
+        <v>298.6349212579627</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>205.6393302471496</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0266302818266</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>128.5277942180926</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>135.2098652488057</v>
       </c>
       <c r="H36" t="n">
-        <v>91.62885864211169</v>
+        <v>91.62885864211168</v>
       </c>
       <c r="I36" t="n">
-        <v>15.93537176334948</v>
+        <v>15.93537176334947</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.2021972674347</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>74.22283112917987</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>101.6569189535546</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>96.86324390258106</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>265.3031655909955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>5.535532989934291</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>298.6349212579627</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>118.1484684587248</v>
       </c>
       <c r="T38" t="n">
-        <v>63.04677906443507</v>
+        <v>205.6393302471496</v>
       </c>
       <c r="U38" t="n">
         <v>251.0266302818266</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>178.1667937262083</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3718,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>24.76280147906198</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>411.3149546900107</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>186.5161392081666</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>143.2833839659251</v>
+        <v>251.0266302818266</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,7 +3913,7 @@
         <v>166.2021972674347</v>
       </c>
       <c r="H43" t="n">
-        <v>146.3232735526989</v>
+        <v>121.8558688911159</v>
       </c>
       <c r="I43" t="n">
         <v>101.6569189535546</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>96.86324390258108</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.3026114029971</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2214594242532</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.76280147906198</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3992,7 @@
         <v>411.3149546900107</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>298.6349212579627</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>94.74245196207146</v>
+        <v>184.5999905718905</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>142.3650195748806</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4150,10 +4150,10 @@
         <v>166.2021972674347</v>
       </c>
       <c r="H46" t="n">
-        <v>146.3232735526989</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>101.6569189535546</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>26.01239464752726</v>
       </c>
       <c r="T46" t="n">
         <v>220.3026114029971</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2214594242532</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1926.050536840746</v>
+        <v>1579.968004989121</v>
       </c>
       <c r="C2" t="n">
-        <v>1926.050536840746</v>
+        <v>1211.005488048709</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800314</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400157</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2553.097355837646</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U2" t="n">
-        <v>2299.516295101826</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="V2" t="n">
-        <v>2299.516295101826</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="W2" t="n">
-        <v>2299.516295101826</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="X2" t="n">
-        <v>1926.050536840746</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="Y2" t="n">
-        <v>1926.050536840746</v>
+        <v>1838.75514755664</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966403</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155133</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D3" t="n">
-        <v>607.916702154262</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488065</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756915</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182536</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4407,28 +4407,28 @@
         <v>51.24678656800314</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180663</v>
+        <v>298.3188265310616</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495381</v>
+        <v>593.0223835625334</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>956.2844025217537</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105704</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281866</v>
+        <v>1675.639966294861</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710447</v>
+        <v>2238.100841080696</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676484</v>
+        <v>2561.393271046732</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400157</v>
@@ -4437,22 +4437,22 @@
         <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815397</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2013.57636781303</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="C4" t="n">
-        <v>1844.640184885123</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="D4" t="n">
-        <v>1694.523545472787</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890394</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392484</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>977.139994893662</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564269</v>
+        <v>977.139994893662</v>
       </c>
       <c r="I4" t="n">
         <v>977.139994893662</v>
@@ -4510,28 +4510,28 @@
         <v>2562.339328400157</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400157</v>
+        <v>2459.755921915739</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400157</v>
+        <v>2263.1271740756</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400157</v>
+        <v>2040.148693270336</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400157</v>
+        <v>1751.030355774173</v>
       </c>
       <c r="V4" t="n">
-        <v>2562.339328400157</v>
+        <v>1496.345867568286</v>
       </c>
       <c r="W4" t="n">
-        <v>2562.339328400157</v>
+        <v>1206.928697531326</v>
       </c>
       <c r="X4" t="n">
-        <v>2416.0174117868</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="Y4" t="n">
-        <v>2195.22483264327</v>
+        <v>1145.126459585383</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.36574282903</v>
+        <v>2064.174362665548</v>
       </c>
       <c r="C5" t="n">
-        <v>1059.36574282903</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>1059.36574282903</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>1059.36574282903</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
         <v>837.3843300102556</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130043</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868963</v>
+        <v>2064.174362665548</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.965582893151</v>
+        <v>2064.174362665548</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180663</v>
+        <v>590.204975114351</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495381</v>
+        <v>884.9085321458228</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105043</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105704</v>
+        <v>1635.455679701988</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281866</v>
+        <v>1967.52611487815</v>
       </c>
       <c r="P6" t="n">
         <v>2214.708848710447</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.04593830764946</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="C7" t="n">
-        <v>53.04593830764946</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="D7" t="n">
-        <v>53.04593830764946</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="E7" t="n">
-        <v>53.04593830764946</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="F7" t="n">
-        <v>53.04593830764946</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="G7" t="n">
-        <v>53.04593830764946</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H7" t="n">
-        <v>53.04593830764946</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800315</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485143</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426274</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056668</v>
+        <v>383.6188956900846</v>
       </c>
       <c r="X7" t="n">
-        <v>53.04593830764946</v>
+        <v>155.6293447920672</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.04593830764946</v>
+        <v>51.24678656800315</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1416.181083656475</v>
+        <v>420.2093035084148</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.181083656475</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D8" t="n">
-        <v>1416.181083656475</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E8" t="n">
-        <v>1030.392831058231</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F8" t="n">
-        <v>619.4069262686235</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G8" t="n">
-        <v>203.7021759929123</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800312</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2507.826837158933</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2254.245776423113</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>1923.182889079542</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656475</v>
+        <v>1570.414233809428</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.181083656475</v>
+        <v>1196.948475548348</v>
       </c>
       <c r="Y8" t="n">
-        <v>1416.181083656475</v>
+        <v>806.8091435725366</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>143.6627691908467</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458215</v>
+        <v>593.0223835625334</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>956.2844025217537</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1675.639966294861</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2238.100841080696</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676483</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="F10" t="n">
         <v>473.8272960668249</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074498</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074498</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.124203461141</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>570.4526592426274</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1252.340747884311</v>
+        <v>2355.356126829471</v>
       </c>
       <c r="C11" t="n">
-        <v>883.3782309438998</v>
+        <v>1986.393609889059</v>
       </c>
       <c r="D11" t="n">
-        <v>883.3782309438998</v>
+        <v>1628.127911282309</v>
       </c>
       <c r="E11" t="n">
-        <v>883.3782309438998</v>
+        <v>1242.339658684064</v>
       </c>
       <c r="F11" t="n">
-        <v>472.3923261542923</v>
+        <v>831.353753894457</v>
       </c>
       <c r="G11" t="n">
-        <v>56.92267495226124</v>
+        <v>415.884102692426</v>
       </c>
       <c r="H11" t="n">
-        <v>56.92267495226124</v>
+        <v>114.2326670783223</v>
       </c>
       <c r="I11" t="n">
-        <v>56.92267495226124</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="J11" t="n">
         <v>212.7607311991987</v>
@@ -5057,34 +5057,34 @@
         <v>2266.531142399974</v>
       </c>
       <c r="P11" t="n">
-        <v>2605.324150033851</v>
+        <v>2605.324150033852</v>
       </c>
       <c r="Q11" t="n">
-        <v>2811.570842789224</v>
+        <v>2811.570842789225</v>
       </c>
       <c r="R11" t="n">
-        <v>2846.133747613062</v>
+        <v>2846.133747613063</v>
       </c>
       <c r="S11" t="n">
-        <v>2846.133747613062</v>
+        <v>2846.133747613063</v>
       </c>
       <c r="T11" t="n">
-        <v>2846.133747613062</v>
+        <v>2638.417252413922</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.314333455439</v>
+        <v>2384.854999603996</v>
       </c>
       <c r="V11" t="n">
-        <v>2755.314333455439</v>
+        <v>2355.356126829471</v>
       </c>
       <c r="W11" t="n">
-        <v>2402.545678185325</v>
+        <v>2355.356126829471</v>
       </c>
       <c r="X11" t="n">
-        <v>2029.079919924245</v>
+        <v>2355.356126829471</v>
       </c>
       <c r="Y11" t="n">
-        <v>1638.940587948433</v>
+        <v>2355.356126829471</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>73.01901006675568</v>
       </c>
       <c r="I12" t="n">
-        <v>56.92267495226124</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="J12" t="n">
-        <v>194.5383984658508</v>
+        <v>130.9209066983811</v>
       </c>
       <c r="K12" t="n">
-        <v>660.9885721522892</v>
+        <v>345.7104311987512</v>
       </c>
       <c r="L12" t="n">
-        <v>982.460848636843</v>
+        <v>667.182707683305</v>
       </c>
       <c r="M12" t="n">
-        <v>1376.960700598882</v>
+        <v>1061.682559645344</v>
       </c>
       <c r="N12" t="n">
-        <v>1796.310434687158</v>
+        <v>1481.03229373362</v>
       </c>
       <c r="O12" t="n">
-        <v>2157.713719558731</v>
+        <v>1842.435578605193</v>
       </c>
       <c r="P12" t="n">
         <v>2428.438651301306</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.14458864926</v>
+        <v>685.6305761860639</v>
       </c>
       <c r="C13" t="n">
-        <v>920.2084057213532</v>
+        <v>685.6305761860639</v>
       </c>
       <c r="D13" t="n">
-        <v>770.0917663090174</v>
+        <v>685.6305761860639</v>
       </c>
       <c r="E13" t="n">
-        <v>622.1786727266243</v>
+        <v>622.1786727266244</v>
       </c>
       <c r="F13" t="n">
-        <v>475.2887252287139</v>
+        <v>475.288725228714</v>
       </c>
       <c r="G13" t="n">
         <v>307.4077178878708</v>
@@ -5194,19 +5194,19 @@
         <v>159.6064314710032</v>
       </c>
       <c r="I13" t="n">
-        <v>56.92267495226124</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="J13" t="n">
-        <v>89.69931153379832</v>
+        <v>89.69931153379835</v>
       </c>
       <c r="K13" t="n">
-        <v>273.3982307357552</v>
+        <v>273.3982307357553</v>
       </c>
       <c r="L13" t="n">
-        <v>563.9960365929273</v>
+        <v>563.9960365929276</v>
       </c>
       <c r="M13" t="n">
-        <v>880.7798011448917</v>
+        <v>880.779801144892</v>
       </c>
       <c r="N13" t="n">
         <v>1195.465772244192</v>
@@ -5221,28 +5221,28 @@
         <v>1744.588114307978</v>
       </c>
       <c r="R13" t="n">
-        <v>1744.588114307978</v>
+        <v>1646.746453800321</v>
       </c>
       <c r="S13" t="n">
-        <v>1744.588114307978</v>
+        <v>1451.955539975032</v>
       </c>
       <c r="T13" t="n">
-        <v>1744.588114307978</v>
+        <v>1229.427649668974</v>
       </c>
       <c r="U13" t="n">
-        <v>1744.588114307978</v>
+        <v>940.3150643919507</v>
       </c>
       <c r="V13" t="n">
-        <v>1744.588114307978</v>
+        <v>685.6305761860639</v>
       </c>
       <c r="W13" t="n">
-        <v>1719.575183521047</v>
+        <v>685.6305761860639</v>
       </c>
       <c r="X13" t="n">
-        <v>1491.58563262303</v>
+        <v>685.6305761860639</v>
       </c>
       <c r="Y13" t="n">
-        <v>1270.7930534795</v>
+        <v>685.6305761860639</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1343.160162041934</v>
+        <v>2298.04613470341</v>
       </c>
       <c r="C14" t="n">
-        <v>974.1976451015228</v>
+        <v>1929.083617762998</v>
       </c>
       <c r="D14" t="n">
-        <v>615.9319464947723</v>
+        <v>1570.817919156248</v>
       </c>
       <c r="E14" t="n">
-        <v>230.1436938965281</v>
+        <v>1185.029666558004</v>
       </c>
       <c r="F14" t="n">
-        <v>230.1436938965281</v>
+        <v>774.0437617683961</v>
       </c>
       <c r="G14" t="n">
-        <v>230.1436938965281</v>
+        <v>358.574110566365</v>
       </c>
       <c r="H14" t="n">
-        <v>56.92267495226124</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="I14" t="n">
-        <v>56.92267495226124</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="J14" t="n">
-        <v>212.7607311991985</v>
+        <v>212.7607311991986</v>
       </c>
       <c r="K14" t="n">
-        <v>497.0600989106618</v>
+        <v>497.060098910662</v>
       </c>
       <c r="L14" t="n">
-        <v>886.6603658844228</v>
+        <v>886.6603658844233</v>
       </c>
       <c r="M14" t="n">
-        <v>1351.835168271613</v>
+        <v>1351.835168271614</v>
       </c>
       <c r="N14" t="n">
-        <v>1829.150793665544</v>
+        <v>1829.150793665545</v>
       </c>
       <c r="O14" t="n">
-        <v>2266.531142399973</v>
+        <v>2266.531142399974</v>
       </c>
       <c r="P14" t="n">
-        <v>2605.324150033851</v>
+        <v>2605.324150033852</v>
       </c>
       <c r="Q14" t="n">
-        <v>2811.570842789224</v>
+        <v>2811.570842789225</v>
       </c>
       <c r="R14" t="n">
-        <v>2846.133747613062</v>
+        <v>2846.133747613063</v>
       </c>
       <c r="S14" t="n">
-        <v>2846.133747613062</v>
+        <v>2846.133747613063</v>
       </c>
       <c r="T14" t="n">
-        <v>2846.133747613062</v>
+        <v>2846.133747613063</v>
       </c>
       <c r="U14" t="n">
-        <v>2846.133747613062</v>
+        <v>2846.133747613063</v>
       </c>
       <c r="V14" t="n">
-        <v>2846.133747613062</v>
+        <v>2846.133747613063</v>
       </c>
       <c r="W14" t="n">
-        <v>2493.365092342948</v>
+        <v>2846.133747613063</v>
       </c>
       <c r="X14" t="n">
-        <v>2119.899334081868</v>
+        <v>2472.667989351983</v>
       </c>
       <c r="Y14" t="n">
-        <v>1729.760002106056</v>
+        <v>2472.667989351983</v>
       </c>
     </row>
     <row r="15">
@@ -5346,37 +5346,37 @@
         <v>302.1490341989954</v>
       </c>
       <c r="G15" t="n">
-        <v>165.5734127355554</v>
+        <v>165.5734127355553</v>
       </c>
       <c r="H15" t="n">
         <v>73.01901006675567</v>
       </c>
       <c r="I15" t="n">
-        <v>56.92267495226124</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="J15" t="n">
-        <v>130.9209066983811</v>
+        <v>216.3898787306065</v>
       </c>
       <c r="K15" t="n">
-        <v>335.5504957423667</v>
+        <v>421.0194677745922</v>
       </c>
       <c r="L15" t="n">
-        <v>657.0227722269206</v>
+        <v>742.4917442591461</v>
       </c>
       <c r="M15" t="n">
-        <v>1051.52262418896</v>
+        <v>1136.991596221185</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.872358277235</v>
+        <v>1556.341330309461</v>
       </c>
       <c r="O15" t="n">
-        <v>1949.73720470024</v>
+        <v>1917.744615181035</v>
       </c>
       <c r="P15" t="n">
-        <v>2220.462136442815</v>
+        <v>2188.469546923609</v>
       </c>
       <c r="Q15" t="n">
-        <v>2559.491902252958</v>
+        <v>2527.499312733753</v>
       </c>
       <c r="R15" t="n">
         <v>2559.491902252958</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.92267495226124</v>
+        <v>159.6064314710032</v>
       </c>
       <c r="C16" t="n">
-        <v>56.92267495226124</v>
+        <v>159.6064314710032</v>
       </c>
       <c r="D16" t="n">
-        <v>56.92267495226124</v>
+        <v>159.6064314710032</v>
       </c>
       <c r="E16" t="n">
-        <v>56.92267495226124</v>
+        <v>159.6064314710032</v>
       </c>
       <c r="F16" t="n">
-        <v>56.92267495226124</v>
+        <v>159.6064314710032</v>
       </c>
       <c r="G16" t="n">
-        <v>56.92267495226124</v>
+        <v>159.6064314710032</v>
       </c>
       <c r="H16" t="n">
-        <v>56.92267495226124</v>
+        <v>159.6064314710032</v>
       </c>
       <c r="I16" t="n">
-        <v>56.92267495226124</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="J16" t="n">
-        <v>89.69931153379835</v>
+        <v>89.69931153379838</v>
       </c>
       <c r="K16" t="n">
-        <v>273.3982307357553</v>
+        <v>273.3982307357554</v>
       </c>
       <c r="L16" t="n">
         <v>563.9960365929276</v>
@@ -5479,7 +5479,7 @@
         <v>168.2238552510864</v>
       </c>
       <c r="Y16" t="n">
-        <v>56.92267495226124</v>
+        <v>159.6064314710032</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>818.0764794213744</v>
+        <v>1695.438992608617</v>
       </c>
       <c r="C17" t="n">
-        <v>818.0764794213744</v>
+        <v>1326.476475668205</v>
       </c>
       <c r="D17" t="n">
-        <v>818.0764794213744</v>
+        <v>1326.476475668205</v>
       </c>
       <c r="E17" t="n">
-        <v>818.0764794213744</v>
+        <v>940.6882230699609</v>
       </c>
       <c r="F17" t="n">
-        <v>818.0764794213744</v>
+        <v>529.7023182803533</v>
       </c>
       <c r="G17" t="n">
-        <v>402.6068282193434</v>
+        <v>114.2326670783223</v>
       </c>
       <c r="H17" t="n">
-        <v>100.9553926052396</v>
+        <v>114.2326670783223</v>
       </c>
       <c r="I17" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J17" t="n">
         <v>212.7607311991987</v>
       </c>
       <c r="K17" t="n">
-        <v>497.0600989106617</v>
+        <v>497.0600989106622</v>
       </c>
       <c r="L17" t="n">
-        <v>886.6603658844231</v>
+        <v>886.6603658844238</v>
       </c>
       <c r="M17" t="n">
-        <v>1351.835168271613</v>
+        <v>1351.835168271614</v>
       </c>
       <c r="N17" t="n">
-        <v>1829.150793665544</v>
+        <v>1829.150793665545</v>
       </c>
       <c r="O17" t="n">
-        <v>2266.531142399974</v>
+        <v>2266.531142399975</v>
       </c>
       <c r="P17" t="n">
-        <v>2605.324150033852</v>
+        <v>2605.324150033853</v>
       </c>
       <c r="Q17" t="n">
-        <v>2811.570842789225</v>
+        <v>2811.570842789226</v>
       </c>
       <c r="R17" t="n">
-        <v>2846.133747613063</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="S17" t="n">
-        <v>2726.791860281018</v>
+        <v>2726.791860281019</v>
       </c>
       <c r="T17" t="n">
-        <v>2519.075365081876</v>
+        <v>2519.075365081877</v>
       </c>
       <c r="U17" t="n">
-        <v>2265.513112271951</v>
+        <v>2472.178164648551</v>
       </c>
       <c r="V17" t="n">
-        <v>1934.45022492838</v>
+        <v>2472.178164648551</v>
       </c>
       <c r="W17" t="n">
-        <v>1581.681569658266</v>
+        <v>2472.178164648551</v>
       </c>
       <c r="X17" t="n">
-        <v>1208.215811397186</v>
+        <v>2472.178164648551</v>
       </c>
       <c r="Y17" t="n">
-        <v>818.0764794213744</v>
+        <v>2082.038832672739</v>
       </c>
     </row>
     <row r="18">
@@ -5580,7 +5580,7 @@
         <v>448.6835921721105</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1490341989955</v>
+        <v>302.1490341989954</v>
       </c>
       <c r="G18" t="n">
         <v>165.5734127355554</v>
@@ -5589,28 +5589,28 @@
         <v>73.01901006675568</v>
       </c>
       <c r="I18" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J18" t="n">
-        <v>255.7510316853858</v>
+        <v>248.382468249812</v>
       </c>
       <c r="K18" t="n">
-        <v>660.9885721522887</v>
+        <v>453.0120572937976</v>
       </c>
       <c r="L18" t="n">
-        <v>982.4608486368427</v>
+        <v>774.4843337783516</v>
       </c>
       <c r="M18" t="n">
-        <v>1376.960700598882</v>
+        <v>1168.984185740391</v>
       </c>
       <c r="N18" t="n">
-        <v>1796.310434687158</v>
+        <v>1588.333919828667</v>
       </c>
       <c r="O18" t="n">
-        <v>2157.713719558731</v>
+        <v>1949.73720470024</v>
       </c>
       <c r="P18" t="n">
-        <v>2428.438651301306</v>
+        <v>2220.462136442815</v>
       </c>
       <c r="Q18" t="n">
         <v>2559.491902252958</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.92267495226126</v>
+        <v>530.372463903757</v>
       </c>
       <c r="C19" t="n">
-        <v>56.92267495226126</v>
+        <v>530.372463903757</v>
       </c>
       <c r="D19" t="n">
-        <v>56.92267495226126</v>
+        <v>380.2558244914212</v>
       </c>
       <c r="E19" t="n">
-        <v>56.92267495226126</v>
+        <v>232.3427309090281</v>
       </c>
       <c r="F19" t="n">
-        <v>56.92267495226126</v>
+        <v>232.3427309090281</v>
       </c>
       <c r="G19" t="n">
-        <v>56.92267495226126</v>
+        <v>232.3427309090281</v>
       </c>
       <c r="H19" t="n">
-        <v>56.92267495226126</v>
+        <v>159.6064314710032</v>
       </c>
       <c r="I19" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J19" t="n">
-        <v>89.69931153379838</v>
+        <v>89.69931153379841</v>
       </c>
       <c r="K19" t="n">
-        <v>273.3982307357553</v>
+        <v>273.3982307357554</v>
       </c>
       <c r="L19" t="n">
         <v>563.9960365929276</v>
@@ -5704,19 +5704,19 @@
         <v>1229.427649668975</v>
       </c>
       <c r="U19" t="n">
-        <v>940.3150643919512</v>
+        <v>1229.427649668975</v>
       </c>
       <c r="V19" t="n">
-        <v>685.6305761860643</v>
+        <v>1229.427649668975</v>
       </c>
       <c r="W19" t="n">
-        <v>396.2134061491037</v>
+        <v>940.010479632014</v>
       </c>
       <c r="X19" t="n">
-        <v>168.2238552510864</v>
+        <v>712.0209287339967</v>
       </c>
       <c r="Y19" t="n">
-        <v>56.92267495226126</v>
+        <v>712.0209287339967</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1169.939143097668</v>
+        <v>1190.980619563346</v>
       </c>
       <c r="C20" t="n">
-        <v>800.9766261572561</v>
+        <v>1190.980619563346</v>
       </c>
       <c r="D20" t="n">
-        <v>442.7109275505055</v>
+        <v>1190.980619563346</v>
       </c>
       <c r="E20" t="n">
-        <v>56.92267495226126</v>
+        <v>1190.980619563346</v>
       </c>
       <c r="F20" t="n">
-        <v>56.92267495226126</v>
+        <v>779.9947147737387</v>
       </c>
       <c r="G20" t="n">
-        <v>56.92267495226126</v>
+        <v>364.5250635717076</v>
       </c>
       <c r="H20" t="n">
-        <v>56.92267495226126</v>
+        <v>62.8736279576039</v>
       </c>
       <c r="I20" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J20" t="n">
         <v>212.7607311991987</v>
@@ -5756,46 +5756,46 @@
         <v>497.060098910662</v>
       </c>
       <c r="L20" t="n">
-        <v>886.6603658844233</v>
+        <v>886.6603658844242</v>
       </c>
       <c r="M20" t="n">
-        <v>1351.835168271613</v>
+        <v>1351.835168271615</v>
       </c>
       <c r="N20" t="n">
-        <v>1829.150793665544</v>
+        <v>1829.150793665546</v>
       </c>
       <c r="O20" t="n">
-        <v>2266.531142399974</v>
+        <v>2266.531142399975</v>
       </c>
       <c r="P20" t="n">
-        <v>2605.324150033852</v>
+        <v>2605.324150033853</v>
       </c>
       <c r="Q20" t="n">
-        <v>2811.570842789225</v>
+        <v>2811.570842789226</v>
       </c>
       <c r="R20" t="n">
-        <v>2846.133747613063</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="S20" t="n">
-        <v>2846.133747613063</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="T20" t="n">
-        <v>2846.133747613063</v>
+        <v>2638.417252413923</v>
       </c>
       <c r="U20" t="n">
-        <v>2672.912728668795</v>
+        <v>2638.417252413923</v>
       </c>
       <c r="V20" t="n">
-        <v>2672.912728668795</v>
+        <v>2307.354365070352</v>
       </c>
       <c r="W20" t="n">
-        <v>2320.144073398681</v>
+        <v>1954.585709800238</v>
       </c>
       <c r="X20" t="n">
-        <v>1946.678315137601</v>
+        <v>1581.119951539158</v>
       </c>
       <c r="Y20" t="n">
-        <v>1556.538983161789</v>
+        <v>1190.980619563346</v>
       </c>
     </row>
     <row r="21">
@@ -5817,7 +5817,7 @@
         <v>448.6835921721105</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1490341989955</v>
+        <v>302.1490341989954</v>
       </c>
       <c r="G21" t="n">
         <v>165.5734127355554</v>
@@ -5826,28 +5826,28 @@
         <v>73.01901006675568</v>
       </c>
       <c r="I21" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J21" t="n">
-        <v>255.7510316853858</v>
+        <v>255.7510316853859</v>
       </c>
       <c r="K21" t="n">
-        <v>460.3806207293715</v>
+        <v>460.3806207293716</v>
       </c>
       <c r="L21" t="n">
-        <v>781.8528972139254</v>
+        <v>781.8528972139255</v>
       </c>
       <c r="M21" t="n">
-        <v>1376.960700598882</v>
+        <v>1176.352749175965</v>
       </c>
       <c r="N21" t="n">
-        <v>1796.310434687158</v>
+        <v>1595.702483264241</v>
       </c>
       <c r="O21" t="n">
-        <v>2157.713719558731</v>
+        <v>1957.105768135814</v>
       </c>
       <c r="P21" t="n">
-        <v>2428.438651301306</v>
+        <v>2227.830699878389</v>
       </c>
       <c r="Q21" t="n">
         <v>2559.491902252958</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>824.740349399231</v>
+        <v>1926.285982704316</v>
       </c>
       <c r="C22" t="n">
-        <v>655.8041664713242</v>
+        <v>1757.34979977641</v>
       </c>
       <c r="D22" t="n">
-        <v>505.6875270589884</v>
+        <v>1607.233160364074</v>
       </c>
       <c r="E22" t="n">
-        <v>357.7744334765953</v>
+        <v>1459.320066781681</v>
       </c>
       <c r="F22" t="n">
-        <v>224.8036822931044</v>
+        <v>1312.430119283771</v>
       </c>
       <c r="G22" t="n">
-        <v>56.92267495226126</v>
+        <v>1158.468308257346</v>
       </c>
       <c r="H22" t="n">
-        <v>56.92267495226126</v>
+        <v>1158.468308257346</v>
       </c>
       <c r="I22" t="n">
-        <v>56.92267495226126</v>
+        <v>1158.468308257346</v>
       </c>
       <c r="J22" t="n">
-        <v>89.69931153379838</v>
+        <v>1191.244944838883</v>
       </c>
       <c r="K22" t="n">
-        <v>273.3982307357553</v>
+        <v>1374.94386404084</v>
       </c>
       <c r="L22" t="n">
-        <v>563.9960365929276</v>
+        <v>1665.541669898013</v>
       </c>
       <c r="M22" t="n">
-        <v>880.779801144892</v>
+        <v>1982.325434449977</v>
       </c>
       <c r="N22" t="n">
-        <v>1195.465772244192</v>
+        <v>2297.011405549277</v>
       </c>
       <c r="O22" t="n">
-        <v>1470.112904440263</v>
+        <v>2571.658537745348</v>
       </c>
       <c r="P22" t="n">
-        <v>1681.600290563357</v>
+        <v>2783.145923868442</v>
       </c>
       <c r="Q22" t="n">
-        <v>1744.588114307979</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="R22" t="n">
-        <v>1744.588114307979</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="S22" t="n">
-        <v>1744.588114307979</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="T22" t="n">
-        <v>1744.588114307979</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="U22" t="n">
-        <v>1744.588114307979</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="V22" t="n">
-        <v>1744.588114307979</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="W22" t="n">
-        <v>1455.170944271018</v>
+        <v>2556.716577576103</v>
       </c>
       <c r="X22" t="n">
-        <v>1227.181393373001</v>
+        <v>2328.727026678086</v>
       </c>
       <c r="Y22" t="n">
-        <v>1006.388814229471</v>
+        <v>2107.934447534556</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>774.0437617683961</v>
+        <v>1185.029666558004</v>
       </c>
       <c r="C23" t="n">
-        <v>774.0437617683961</v>
+        <v>1185.029666558004</v>
       </c>
       <c r="D23" t="n">
-        <v>774.0437617683961</v>
+        <v>1185.029666558004</v>
       </c>
       <c r="E23" t="n">
-        <v>774.0437617683961</v>
+        <v>1185.029666558004</v>
       </c>
       <c r="F23" t="n">
         <v>774.0437617683961</v>
@@ -5981,58 +5981,58 @@
         <v>358.574110566365</v>
       </c>
       <c r="H23" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="I23" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J23" t="n">
-        <v>212.7607311991985</v>
+        <v>212.7607311991992</v>
       </c>
       <c r="K23" t="n">
-        <v>497.0600989106618</v>
+        <v>497.0600989106626</v>
       </c>
       <c r="L23" t="n">
-        <v>886.6603658844231</v>
+        <v>886.660365884424</v>
       </c>
       <c r="M23" t="n">
-        <v>1351.835168271613</v>
+        <v>1351.835168271614</v>
       </c>
       <c r="N23" t="n">
-        <v>1829.150793665544</v>
+        <v>1829.150793665545</v>
       </c>
       <c r="O23" t="n">
-        <v>2266.531142399974</v>
+        <v>2266.531142399975</v>
       </c>
       <c r="P23" t="n">
-        <v>2605.324150033852</v>
+        <v>2605.324150033853</v>
       </c>
       <c r="Q23" t="n">
-        <v>2811.570842789225</v>
+        <v>2811.570842789226</v>
       </c>
       <c r="R23" t="n">
-        <v>2846.133747613063</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="S23" t="n">
-        <v>2846.133747613063</v>
+        <v>2726.791860281019</v>
       </c>
       <c r="T23" t="n">
-        <v>2846.133747613063</v>
+        <v>2726.791860281019</v>
       </c>
       <c r="U23" t="n">
-        <v>2608.080234683094</v>
+        <v>2726.791860281019</v>
       </c>
       <c r="V23" t="n">
-        <v>2277.017347339523</v>
+        <v>2395.728972937448</v>
       </c>
       <c r="W23" t="n">
-        <v>1924.248692069409</v>
+        <v>2042.960317667334</v>
       </c>
       <c r="X23" t="n">
-        <v>1550.78293380833</v>
+        <v>1669.494559406254</v>
       </c>
       <c r="Y23" t="n">
-        <v>1160.643601832518</v>
+        <v>1279.355227430442</v>
       </c>
     </row>
     <row r="24">
@@ -6054,7 +6054,7 @@
         <v>448.6835921721105</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1490341989955</v>
+        <v>302.1490341989954</v>
       </c>
       <c r="G24" t="n">
         <v>165.5734127355554</v>
@@ -6063,28 +6063,28 @@
         <v>73.01901006675568</v>
       </c>
       <c r="I24" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J24" t="n">
-        <v>130.9209066983811</v>
+        <v>255.7510316853859</v>
       </c>
       <c r="K24" t="n">
-        <v>335.5504957423667</v>
+        <v>460.3806207293716</v>
       </c>
       <c r="L24" t="n">
-        <v>657.0227722269206</v>
+        <v>781.8528972139255</v>
       </c>
       <c r="M24" t="n">
-        <v>1051.52262418896</v>
+        <v>1176.352749175965</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.872358277235</v>
+        <v>1796.310434687158</v>
       </c>
       <c r="O24" t="n">
-        <v>1832.275643148809</v>
+        <v>2157.713719558731</v>
       </c>
       <c r="P24" t="n">
-        <v>2418.278715844921</v>
+        <v>2428.438651301306</v>
       </c>
       <c r="Q24" t="n">
         <v>2559.491902252958</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1158.468308257346</v>
+        <v>533.8924529596799</v>
       </c>
       <c r="C25" t="n">
-        <v>1158.468308257346</v>
+        <v>364.956270031773</v>
       </c>
       <c r="D25" t="n">
-        <v>1158.468308257346</v>
+        <v>364.956270031773</v>
       </c>
       <c r="E25" t="n">
-        <v>1158.468308257346</v>
+        <v>364.956270031773</v>
       </c>
       <c r="F25" t="n">
-        <v>1158.468308257346</v>
+        <v>218.0663225338626</v>
       </c>
       <c r="G25" t="n">
-        <v>1158.468308257346</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="H25" t="n">
-        <v>1158.468308257346</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="I25" t="n">
-        <v>1158.468308257346</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J25" t="n">
-        <v>1191.244944838883</v>
+        <v>89.69931153379841</v>
       </c>
       <c r="K25" t="n">
-        <v>1374.94386404084</v>
+        <v>273.3982307357554</v>
       </c>
       <c r="L25" t="n">
-        <v>1665.541669898012</v>
+        <v>563.9960365929276</v>
       </c>
       <c r="M25" t="n">
-        <v>1982.325434449976</v>
+        <v>880.779801144892</v>
       </c>
       <c r="N25" t="n">
-        <v>2297.011405549276</v>
+        <v>1195.465772244192</v>
       </c>
       <c r="O25" t="n">
-        <v>2571.658537745347</v>
+        <v>1470.112904440263</v>
       </c>
       <c r="P25" t="n">
-        <v>2783.145923868442</v>
+        <v>1681.600290563357</v>
       </c>
       <c r="Q25" t="n">
-        <v>2846.133747613063</v>
+        <v>1744.588114307979</v>
       </c>
       <c r="R25" t="n">
-        <v>2846.133747613063</v>
+        <v>1744.588114307979</v>
       </c>
       <c r="S25" t="n">
-        <v>2844.641036955061</v>
+        <v>1744.588114307979</v>
       </c>
       <c r="T25" t="n">
-        <v>2622.113146649003</v>
+        <v>1522.060224001921</v>
       </c>
       <c r="U25" t="n">
-        <v>2333.00056137198</v>
+        <v>1232.947638724898</v>
       </c>
       <c r="V25" t="n">
-        <v>2078.316073166093</v>
+        <v>1232.947638724898</v>
       </c>
       <c r="W25" t="n">
-        <v>1788.898903129133</v>
+        <v>943.5304686879369</v>
       </c>
       <c r="X25" t="n">
-        <v>1560.909352231115</v>
+        <v>715.5409177899196</v>
       </c>
       <c r="Y25" t="n">
-        <v>1340.116773087585</v>
+        <v>715.5409177899196</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1169.939143097668</v>
+        <v>1934.450224928381</v>
       </c>
       <c r="C26" t="n">
-        <v>800.9766261572561</v>
+        <v>1934.450224928381</v>
       </c>
       <c r="D26" t="n">
-        <v>442.7109275505055</v>
+        <v>1576.184526321631</v>
       </c>
       <c r="E26" t="n">
-        <v>56.92267495226126</v>
+        <v>1190.396273723386</v>
       </c>
       <c r="F26" t="n">
-        <v>56.92267495226126</v>
+        <v>779.4103689337787</v>
       </c>
       <c r="G26" t="n">
-        <v>56.92267495226126</v>
+        <v>363.9407177317477</v>
       </c>
       <c r="H26" t="n">
-        <v>56.92267495226126</v>
+        <v>62.28928211764395</v>
       </c>
       <c r="I26" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J26" t="n">
         <v>212.7607311991987</v>
       </c>
       <c r="K26" t="n">
-        <v>497.0600989106621</v>
+        <v>497.0600989106624</v>
       </c>
       <c r="L26" t="n">
-        <v>886.6603658844235</v>
+        <v>886.6603658844238</v>
       </c>
       <c r="M26" t="n">
         <v>1351.835168271614</v>
@@ -6245,31 +6245,31 @@
         <v>2605.324150033853</v>
       </c>
       <c r="Q26" t="n">
-        <v>2811.570842789225</v>
+        <v>2811.570842789226</v>
       </c>
       <c r="R26" t="n">
-        <v>2846.133747613063</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="S26" t="n">
-        <v>2846.133747613063</v>
+        <v>2726.791860281019</v>
       </c>
       <c r="T26" t="n">
-        <v>2846.133747613063</v>
+        <v>2519.075365081877</v>
       </c>
       <c r="U26" t="n">
-        <v>2613.836284036554</v>
+        <v>2265.513112271952</v>
       </c>
       <c r="V26" t="n">
-        <v>2282.773396692984</v>
+        <v>1934.450224928381</v>
       </c>
       <c r="W26" t="n">
-        <v>1930.004741422869</v>
+        <v>1934.450224928381</v>
       </c>
       <c r="X26" t="n">
-        <v>1556.538983161789</v>
+        <v>1934.450224928381</v>
       </c>
       <c r="Y26" t="n">
-        <v>1556.538983161789</v>
+        <v>1934.450224928381</v>
       </c>
     </row>
     <row r="27">
@@ -6291,7 +6291,7 @@
         <v>448.6835921721105</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1490341989955</v>
+        <v>302.1490341989954</v>
       </c>
       <c r="G27" t="n">
         <v>165.5734127355554</v>
@@ -6300,28 +6300,28 @@
         <v>73.01901006675568</v>
       </c>
       <c r="I27" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J27" t="n">
-        <v>248.3824682498125</v>
+        <v>255.7510316853859</v>
       </c>
       <c r="K27" t="n">
-        <v>453.0120572937981</v>
+        <v>460.3806207293716</v>
       </c>
       <c r="L27" t="n">
-        <v>774.484333778352</v>
+        <v>781.8528972139255</v>
       </c>
       <c r="M27" t="n">
-        <v>1168.984185740391</v>
+        <v>1176.352749175965</v>
       </c>
       <c r="N27" t="n">
-        <v>1588.333919828667</v>
+        <v>1595.702483264241</v>
       </c>
       <c r="O27" t="n">
-        <v>1949.73720470024</v>
+        <v>2157.713719558731</v>
       </c>
       <c r="P27" t="n">
-        <v>2220.462136442815</v>
+        <v>2428.438651301306</v>
       </c>
       <c r="Q27" t="n">
         <v>2559.491902252958</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>225.8588578801682</v>
+        <v>920.2084057213533</v>
       </c>
       <c r="C28" t="n">
-        <v>56.92267495226126</v>
+        <v>920.2084057213533</v>
       </c>
       <c r="D28" t="n">
-        <v>56.92267495226126</v>
+        <v>770.0917663090175</v>
       </c>
       <c r="E28" t="n">
-        <v>56.92267495226126</v>
+        <v>622.1786727266244</v>
       </c>
       <c r="F28" t="n">
-        <v>56.92267495226126</v>
+        <v>475.288725228714</v>
       </c>
       <c r="G28" t="n">
-        <v>56.92267495226126</v>
+        <v>307.4077178878708</v>
       </c>
       <c r="H28" t="n">
-        <v>56.92267495226126</v>
+        <v>159.6064314710032</v>
       </c>
       <c r="I28" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J28" t="n">
-        <v>89.69931153379838</v>
+        <v>89.69931153379841</v>
       </c>
       <c r="K28" t="n">
-        <v>273.3982307357553</v>
+        <v>273.3982307357554</v>
       </c>
       <c r="L28" t="n">
         <v>563.9960365929276</v>
@@ -6406,28 +6406,28 @@
         <v>1744.588114307979</v>
       </c>
       <c r="R28" t="n">
-        <v>1646.746453800321</v>
+        <v>1744.588114307979</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.919001300861</v>
+        <v>1659.838432202452</v>
       </c>
       <c r="T28" t="n">
-        <v>1400.391110994803</v>
+        <v>1437.310541896394</v>
       </c>
       <c r="U28" t="n">
-        <v>1400.391110994803</v>
+        <v>1148.197956619371</v>
       </c>
       <c r="V28" t="n">
-        <v>1145.706622788916</v>
+        <v>1148.197956619371</v>
       </c>
       <c r="W28" t="n">
-        <v>856.2894527519553</v>
+        <v>1148.197956619371</v>
       </c>
       <c r="X28" t="n">
-        <v>628.299901853938</v>
+        <v>920.2084057213533</v>
       </c>
       <c r="Y28" t="n">
-        <v>407.5073227104078</v>
+        <v>920.2084057213533</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1471.590578711771</v>
+        <v>1996.394699089306</v>
       </c>
       <c r="C29" t="n">
-        <v>1102.62806177136</v>
+        <v>1627.432182148895</v>
       </c>
       <c r="D29" t="n">
-        <v>744.3623631646092</v>
+        <v>1269.166483542144</v>
       </c>
       <c r="E29" t="n">
-        <v>358.574110566365</v>
+        <v>883.3782309438999</v>
       </c>
       <c r="F29" t="n">
-        <v>358.574110566365</v>
+        <v>472.3923261542923</v>
       </c>
       <c r="G29" t="n">
-        <v>358.574110566365</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="H29" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="I29" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J29" t="n">
         <v>212.7607311991987</v>
@@ -6467,46 +6467,46 @@
         <v>497.060098910662</v>
       </c>
       <c r="L29" t="n">
-        <v>886.6603658844233</v>
+        <v>886.6603658844242</v>
       </c>
       <c r="M29" t="n">
-        <v>1351.835168271613</v>
+        <v>1351.835168271615</v>
       </c>
       <c r="N29" t="n">
-        <v>1829.150793665544</v>
+        <v>1829.150793665546</v>
       </c>
       <c r="O29" t="n">
-        <v>2266.531142399974</v>
+        <v>2266.531142399975</v>
       </c>
       <c r="P29" t="n">
-        <v>2605.324150033852</v>
+        <v>2605.324150033853</v>
       </c>
       <c r="Q29" t="n">
-        <v>2811.570842789225</v>
+        <v>2811.570842789226</v>
       </c>
       <c r="R29" t="n">
-        <v>2846.133747613063</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="S29" t="n">
-        <v>2782.450132396462</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="T29" t="n">
-        <v>2782.450132396462</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="U29" t="n">
-        <v>2528.887879586536</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="V29" t="n">
-        <v>2197.824992242965</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="W29" t="n">
-        <v>1845.056336972851</v>
+        <v>2756.460297414508</v>
       </c>
       <c r="X29" t="n">
-        <v>1471.590578711771</v>
+        <v>2382.994539153428</v>
       </c>
       <c r="Y29" t="n">
-        <v>1471.590578711771</v>
+        <v>2382.994539153428</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3084861199442</v>
+        <v>1217.950331480049</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8554568388172</v>
+        <v>1043.497302198922</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9210471775659</v>
+        <v>894.5628925376711</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6835921721105</v>
+        <v>735.3254375322156</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1490341989955</v>
+        <v>588.7908795591005</v>
       </c>
       <c r="G30" t="n">
-        <v>165.5734127355554</v>
+        <v>452.2152580956604</v>
       </c>
       <c r="H30" t="n">
-        <v>73.01901006675568</v>
+        <v>359.6608554268607</v>
       </c>
       <c r="I30" t="n">
-        <v>56.92267495226126</v>
+        <v>343.5645203123663</v>
       </c>
       <c r="J30" t="n">
-        <v>216.3898787306071</v>
+        <v>542.3928770454909</v>
       </c>
       <c r="K30" t="n">
-        <v>421.0194677745927</v>
+        <v>747.0224660894766</v>
       </c>
       <c r="L30" t="n">
-        <v>742.4917442591466</v>
+        <v>1068.494742574031</v>
       </c>
       <c r="M30" t="n">
-        <v>1136.991596221186</v>
+        <v>1462.99459453607</v>
       </c>
       <c r="N30" t="n">
-        <v>1556.341330309461</v>
+        <v>1882.344328624346</v>
       </c>
       <c r="O30" t="n">
-        <v>1917.744615181035</v>
+        <v>2243.747613495919</v>
       </c>
       <c r="P30" t="n">
-        <v>2188.469546923609</v>
+        <v>2514.472545238494</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.499312733753</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="R30" t="n">
-        <v>2559.491902252958</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="S30" t="n">
-        <v>2426.106525883252</v>
+        <v>2712.748371243358</v>
       </c>
       <c r="T30" t="n">
-        <v>2232.606915600242</v>
+        <v>2519.248760960347</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.525087070443</v>
+        <v>2291.166932430549</v>
       </c>
       <c r="V30" t="n">
-        <v>1769.3729788387</v>
+        <v>2056.014824198806</v>
       </c>
       <c r="W30" t="n">
-        <v>1515.135622110499</v>
+        <v>1801.777467470604</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.284121904966</v>
+        <v>1593.925967265071</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.523823140012</v>
+        <v>1386.165668500118</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1158.468308257346</v>
+        <v>1306.381401839739</v>
       </c>
       <c r="C31" t="n">
-        <v>1158.468308257346</v>
+        <v>1306.381401839739</v>
       </c>
       <c r="D31" t="n">
-        <v>1158.468308257346</v>
+        <v>1306.381401839739</v>
       </c>
       <c r="E31" t="n">
         <v>1158.468308257346</v>
@@ -6625,46 +6625,46 @@
         <v>1374.94386404084</v>
       </c>
       <c r="L31" t="n">
-        <v>1665.541669898012</v>
+        <v>1665.541669898013</v>
       </c>
       <c r="M31" t="n">
-        <v>1982.325434449976</v>
+        <v>1982.325434449977</v>
       </c>
       <c r="N31" t="n">
-        <v>2297.011405549276</v>
+        <v>2297.011405549277</v>
       </c>
       <c r="O31" t="n">
-        <v>2571.658537745347</v>
+        <v>2571.658537745348</v>
       </c>
       <c r="P31" t="n">
         <v>2783.145923868442</v>
       </c>
       <c r="Q31" t="n">
-        <v>2846.133747613063</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="R31" t="n">
-        <v>2748.292087105405</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="S31" t="n">
-        <v>2553.501173280117</v>
+        <v>2846.133747613064</v>
       </c>
       <c r="T31" t="n">
-        <v>2330.973282974059</v>
+        <v>2623.605857307006</v>
       </c>
       <c r="U31" t="n">
-        <v>2041.860697697036</v>
+        <v>2334.493272029983</v>
       </c>
       <c r="V31" t="n">
-        <v>1787.176209491149</v>
+        <v>2079.808783824096</v>
       </c>
       <c r="W31" t="n">
-        <v>1497.759039454188</v>
+        <v>1790.391613787136</v>
       </c>
       <c r="X31" t="n">
-        <v>1269.769488556171</v>
+        <v>1562.402062889118</v>
       </c>
       <c r="Y31" t="n">
-        <v>1158.468308257346</v>
+        <v>1341.609483745588</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1695.928817312049</v>
+        <v>858.1805787525366</v>
       </c>
       <c r="C32" t="n">
-        <v>1695.928817312049</v>
+        <v>858.1805787525366</v>
       </c>
       <c r="D32" t="n">
-        <v>1337.663118705298</v>
+        <v>858.1805787525366</v>
       </c>
       <c r="E32" t="n">
-        <v>951.874866107054</v>
+        <v>472.3923261542923</v>
       </c>
       <c r="F32" t="n">
-        <v>540.8889613174465</v>
+        <v>472.3923261542923</v>
       </c>
       <c r="G32" t="n">
-        <v>125.4193101154154</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="H32" t="n">
-        <v>114.2326670783223</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="I32" t="n">
-        <v>56.92267495226124</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="J32" t="n">
-        <v>212.7607311991985</v>
+        <v>212.7607311991986</v>
       </c>
       <c r="K32" t="n">
-        <v>497.0600989106618</v>
+        <v>497.060098910662</v>
       </c>
       <c r="L32" t="n">
-        <v>886.6603658844228</v>
+        <v>886.6603658844231</v>
       </c>
       <c r="M32" t="n">
         <v>1351.835168271613</v>
@@ -6713,37 +6713,37 @@
         <v>1829.150793665544</v>
       </c>
       <c r="O32" t="n">
-        <v>2266.531142399973</v>
+        <v>2266.531142399974</v>
       </c>
       <c r="P32" t="n">
-        <v>2605.324150033851</v>
+        <v>2605.324150033852</v>
       </c>
       <c r="Q32" t="n">
-        <v>2811.570842789224</v>
+        <v>2811.570842789225</v>
       </c>
       <c r="R32" t="n">
-        <v>2846.133747613062</v>
+        <v>2846.133747613063</v>
       </c>
       <c r="S32" t="n">
-        <v>2846.133747613062</v>
+        <v>2766.89595961218</v>
       </c>
       <c r="T32" t="n">
-        <v>2846.133747613062</v>
+        <v>2559.179464413039</v>
       </c>
       <c r="U32" t="n">
-        <v>2846.133747613062</v>
+        <v>2305.617211603113</v>
       </c>
       <c r="V32" t="n">
-        <v>2846.133747613062</v>
+        <v>1974.554324259542</v>
       </c>
       <c r="W32" t="n">
-        <v>2846.133747613062</v>
+        <v>1621.785668989428</v>
       </c>
       <c r="X32" t="n">
-        <v>2472.667989351982</v>
+        <v>1248.319910728348</v>
       </c>
       <c r="Y32" t="n">
-        <v>2082.52865737617</v>
+        <v>858.1805787525366</v>
       </c>
     </row>
     <row r="33">
@@ -6768,34 +6768,34 @@
         <v>302.1490341989954</v>
       </c>
       <c r="G33" t="n">
-        <v>165.5734127355554</v>
+        <v>165.5734127355553</v>
       </c>
       <c r="H33" t="n">
         <v>73.01901006675567</v>
       </c>
       <c r="I33" t="n">
-        <v>56.92267495226124</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="J33" t="n">
-        <v>248.3824682498125</v>
+        <v>194.53839846585</v>
       </c>
       <c r="K33" t="n">
-        <v>453.0120572937981</v>
+        <v>660.9885721522885</v>
       </c>
       <c r="L33" t="n">
-        <v>774.484333778352</v>
+        <v>982.4608486368425</v>
       </c>
       <c r="M33" t="n">
-        <v>1168.984185740391</v>
+        <v>1376.960700598882</v>
       </c>
       <c r="N33" t="n">
-        <v>1588.333919828667</v>
+        <v>1796.310434687158</v>
       </c>
       <c r="O33" t="n">
-        <v>1949.73720470024</v>
+        <v>2157.713719558731</v>
       </c>
       <c r="P33" t="n">
-        <v>2220.462136442815</v>
+        <v>2428.438651301306</v>
       </c>
       <c r="Q33" t="n">
         <v>2559.491902252958</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1158.468308257345</v>
+        <v>1089.14458864926</v>
       </c>
       <c r="C34" t="n">
-        <v>1158.468308257345</v>
+        <v>920.2084057213533</v>
       </c>
       <c r="D34" t="n">
-        <v>1158.468308257345</v>
+        <v>770.0917663090175</v>
       </c>
       <c r="E34" t="n">
-        <v>1158.468308257345</v>
+        <v>622.1786727266244</v>
       </c>
       <c r="F34" t="n">
-        <v>1158.468308257345</v>
+        <v>475.288725228714</v>
       </c>
       <c r="G34" t="n">
-        <v>1158.468308257345</v>
+        <v>307.4077178878708</v>
       </c>
       <c r="H34" t="n">
-        <v>1158.468308257345</v>
+        <v>159.6064314710032</v>
       </c>
       <c r="I34" t="n">
-        <v>1158.468308257345</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="J34" t="n">
-        <v>1191.244944838882</v>
+        <v>89.69931153379838</v>
       </c>
       <c r="K34" t="n">
-        <v>1374.943864040839</v>
+        <v>273.3982307357554</v>
       </c>
       <c r="L34" t="n">
-        <v>1665.541669898011</v>
+        <v>563.9960365929276</v>
       </c>
       <c r="M34" t="n">
-        <v>1982.325434449975</v>
+        <v>880.779801144892</v>
       </c>
       <c r="N34" t="n">
-        <v>2297.011405549275</v>
+        <v>1195.465772244192</v>
       </c>
       <c r="O34" t="n">
-        <v>2571.658537745346</v>
+        <v>1470.112904440263</v>
       </c>
       <c r="P34" t="n">
-        <v>2783.145923868441</v>
+        <v>1681.600290563357</v>
       </c>
       <c r="Q34" t="n">
-        <v>2846.133747613062</v>
+        <v>1744.588114307979</v>
       </c>
       <c r="R34" t="n">
-        <v>2748.292087105404</v>
+        <v>1744.588114307979</v>
       </c>
       <c r="S34" t="n">
-        <v>2553.501173280116</v>
+        <v>1744.588114307979</v>
       </c>
       <c r="T34" t="n">
-        <v>2330.973282974058</v>
+        <v>1744.588114307979</v>
       </c>
       <c r="U34" t="n">
-        <v>2041.860697697035</v>
+        <v>1744.588114307979</v>
       </c>
       <c r="V34" t="n">
-        <v>1787.176209491148</v>
+        <v>1744.588114307979</v>
       </c>
       <c r="W34" t="n">
-        <v>1497.759039454187</v>
+        <v>1719.575183521047</v>
       </c>
       <c r="X34" t="n">
-        <v>1340.116773087584</v>
+        <v>1491.58563262303</v>
       </c>
       <c r="Y34" t="n">
-        <v>1340.116773087584</v>
+        <v>1270.7930534795</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1729.760002106056</v>
+        <v>1528.794531307052</v>
       </c>
       <c r="C35" t="n">
-        <v>1360.797485165645</v>
+        <v>1159.83201436664</v>
       </c>
       <c r="D35" t="n">
-        <v>1360.797485165645</v>
+        <v>1159.83201436664</v>
       </c>
       <c r="E35" t="n">
-        <v>975.0092325674002</v>
+        <v>774.0437617683961</v>
       </c>
       <c r="F35" t="n">
-        <v>564.0233277777927</v>
+        <v>774.0437617683961</v>
       </c>
       <c r="G35" t="n">
-        <v>148.5536765757616</v>
+        <v>358.574110566365</v>
       </c>
       <c r="H35" t="n">
-        <v>56.92267495226124</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="I35" t="n">
-        <v>56.92267495226124</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="J35" t="n">
-        <v>212.7607311991985</v>
+        <v>212.7607311991986</v>
       </c>
       <c r="K35" t="n">
-        <v>497.0600989106618</v>
+        <v>497.060098910662</v>
       </c>
       <c r="L35" t="n">
-        <v>886.6603658844228</v>
+        <v>886.6603658844233</v>
       </c>
       <c r="M35" t="n">
         <v>1351.835168271613</v>
@@ -6956,31 +6956,31 @@
         <v>2605.324150033852</v>
       </c>
       <c r="Q35" t="n">
-        <v>2811.570842789224</v>
+        <v>2811.570842789225</v>
       </c>
       <c r="R35" t="n">
-        <v>2846.133747613062</v>
+        <v>2846.133747613063</v>
       </c>
       <c r="S35" t="n">
-        <v>2846.133747613062</v>
+        <v>2846.133747613063</v>
       </c>
       <c r="T35" t="n">
-        <v>2846.133747613062</v>
+        <v>2638.417252413922</v>
       </c>
       <c r="U35" t="n">
-        <v>2846.133747613062</v>
+        <v>2384.854999603996</v>
       </c>
       <c r="V35" t="n">
-        <v>2846.133747613062</v>
+        <v>2384.854999603996</v>
       </c>
       <c r="W35" t="n">
-        <v>2493.365092342948</v>
+        <v>2032.086344333882</v>
       </c>
       <c r="X35" t="n">
-        <v>2119.899334081868</v>
+        <v>1658.620586072802</v>
       </c>
       <c r="Y35" t="n">
-        <v>1729.760002106056</v>
+        <v>1528.794531307052</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7005,22 @@
         <v>302.1490341989954</v>
       </c>
       <c r="G36" t="n">
-        <v>165.5734127355554</v>
+        <v>165.5734127355553</v>
       </c>
       <c r="H36" t="n">
         <v>73.01901006675567</v>
       </c>
       <c r="I36" t="n">
-        <v>56.92267495226124</v>
+        <v>56.92267495226126</v>
       </c>
       <c r="J36" t="n">
-        <v>248.3824682498125</v>
+        <v>248.382468249812</v>
       </c>
       <c r="K36" t="n">
-        <v>453.0120572937981</v>
+        <v>453.0120572937976</v>
       </c>
       <c r="L36" t="n">
-        <v>774.484333778352</v>
+        <v>774.4843337783516</v>
       </c>
       <c r="M36" t="n">
         <v>1168.984185740391</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1624.411078095497</v>
+        <v>2117.861492233618</v>
       </c>
       <c r="C37" t="n">
-        <v>1455.474895167591</v>
+        <v>1948.925309305711</v>
       </c>
       <c r="D37" t="n">
-        <v>1305.358255755255</v>
+        <v>1798.808669893375</v>
       </c>
       <c r="E37" t="n">
-        <v>1305.358255755255</v>
+        <v>1650.895576310982</v>
       </c>
       <c r="F37" t="n">
-        <v>1158.468308257345</v>
+        <v>1504.005628813072</v>
       </c>
       <c r="G37" t="n">
-        <v>1158.468308257345</v>
+        <v>1336.124621472229</v>
       </c>
       <c r="H37" t="n">
-        <v>1158.468308257345</v>
+        <v>1261.152064776087</v>
       </c>
       <c r="I37" t="n">
         <v>1158.468308257345</v>
@@ -7096,49 +7096,49 @@
         <v>1191.244944838882</v>
       </c>
       <c r="K37" t="n">
-        <v>1374.943864040839</v>
+        <v>1374.94386404084</v>
       </c>
       <c r="L37" t="n">
-        <v>1665.541669898011</v>
+        <v>1665.541669898012</v>
       </c>
       <c r="M37" t="n">
-        <v>1982.325434449975</v>
+        <v>1982.325434449976</v>
       </c>
       <c r="N37" t="n">
-        <v>2297.011405549275</v>
+        <v>2297.011405549276</v>
       </c>
       <c r="O37" t="n">
-        <v>2571.658537745346</v>
+        <v>2571.658537745347</v>
       </c>
       <c r="P37" t="n">
-        <v>2783.145923868441</v>
+        <v>2783.145923868442</v>
       </c>
       <c r="Q37" t="n">
-        <v>2846.133747613062</v>
+        <v>2846.133747613063</v>
       </c>
       <c r="R37" t="n">
-        <v>2846.133747613062</v>
+        <v>2748.292087105405</v>
       </c>
       <c r="S37" t="n">
-        <v>2846.133747613062</v>
+        <v>2748.292087105405</v>
       </c>
       <c r="T37" t="n">
-        <v>2846.133747613062</v>
+        <v>2748.292087105405</v>
       </c>
       <c r="U37" t="n">
-        <v>2578.150752066602</v>
+        <v>2748.292087105405</v>
       </c>
       <c r="V37" t="n">
-        <v>2323.466263860715</v>
+        <v>2748.292087105405</v>
       </c>
       <c r="W37" t="n">
-        <v>2034.049093823754</v>
+        <v>2748.292087105405</v>
       </c>
       <c r="X37" t="n">
-        <v>1806.059542925737</v>
+        <v>2520.302536207388</v>
       </c>
       <c r="Y37" t="n">
-        <v>1806.059542925737</v>
+        <v>2299.509957063858</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1471.590578711771</v>
+        <v>431.4766393572531</v>
       </c>
       <c r="C38" t="n">
-        <v>1102.62806177136</v>
+        <v>62.51412241684136</v>
       </c>
       <c r="D38" t="n">
-        <v>744.3623631646092</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="E38" t="n">
-        <v>358.574110566365</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="F38" t="n">
-        <v>358.574110566365</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="G38" t="n">
-        <v>358.574110566365</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="H38" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="I38" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J38" t="n">
         <v>212.760731199199</v>
@@ -7190,7 +7190,7 @@
         <v>2266.531142399975</v>
       </c>
       <c r="P38" t="n">
-        <v>2605.324150033852</v>
+        <v>2605.324150033853</v>
       </c>
       <c r="Q38" t="n">
         <v>2811.570842789225</v>
@@ -7199,25 +7199,25 @@
         <v>2846.133747613063</v>
       </c>
       <c r="S38" t="n">
-        <v>2846.133747613063</v>
+        <v>2726.791860281018</v>
       </c>
       <c r="T38" t="n">
-        <v>2782.450132396462</v>
+        <v>2519.075365081877</v>
       </c>
       <c r="U38" t="n">
-        <v>2528.887879586536</v>
+        <v>2265.513112271951</v>
       </c>
       <c r="V38" t="n">
-        <v>2197.824992242965</v>
+        <v>1934.450224928381</v>
       </c>
       <c r="W38" t="n">
-        <v>1845.056336972851</v>
+        <v>1581.681569658266</v>
       </c>
       <c r="X38" t="n">
-        <v>1471.590578711771</v>
+        <v>1208.215811397187</v>
       </c>
       <c r="Y38" t="n">
-        <v>1471.590578711771</v>
+        <v>818.0764794213749</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>165.5734127355554</v>
       </c>
       <c r="H39" t="n">
-        <v>73.01901006675568</v>
+        <v>73.0190100667557</v>
       </c>
       <c r="I39" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J39" t="n">
-        <v>255.7510316853858</v>
+        <v>248.3824682498127</v>
       </c>
       <c r="K39" t="n">
-        <v>460.3806207293715</v>
+        <v>453.0120572937983</v>
       </c>
       <c r="L39" t="n">
-        <v>781.8528972139253</v>
+        <v>774.4843337783522</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.352749175964</v>
+        <v>1168.984185740391</v>
       </c>
       <c r="N39" t="n">
-        <v>1595.70248326424</v>
+        <v>1588.333919828667</v>
       </c>
       <c r="O39" t="n">
-        <v>1957.105768135813</v>
+        <v>1949.73720470024</v>
       </c>
       <c r="P39" t="n">
-        <v>2227.830699878388</v>
+        <v>2220.462136442815</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.499312733753</v>
+        <v>2559.491902252958</v>
       </c>
       <c r="R39" t="n">
         <v>2559.491902252958</v>
@@ -7327,10 +7327,10 @@
         <v>159.6064314710032</v>
       </c>
       <c r="I40" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J40" t="n">
-        <v>89.69931153379835</v>
+        <v>89.69931153379837</v>
       </c>
       <c r="K40" t="n">
         <v>273.3982307357553</v>
@@ -7366,16 +7366,16 @@
         <v>1744.588114307978</v>
       </c>
       <c r="V40" t="n">
-        <v>1489.903626102091</v>
+        <v>1744.588114307978</v>
       </c>
       <c r="W40" t="n">
-        <v>1489.903626102091</v>
+        <v>1719.575183521047</v>
       </c>
       <c r="X40" t="n">
-        <v>1489.903626102091</v>
+        <v>1491.58563262303</v>
       </c>
       <c r="Y40" t="n">
-        <v>1269.111046958561</v>
+        <v>1270.7930534795</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1627.432182148895</v>
+        <v>1815.832322763204</v>
       </c>
       <c r="C41" t="n">
-        <v>1627.432182148895</v>
+        <v>1815.832322763204</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.166483542144</v>
+        <v>1457.566624156454</v>
       </c>
       <c r="E41" t="n">
-        <v>883.3782309438999</v>
+        <v>1071.77837155821</v>
       </c>
       <c r="F41" t="n">
-        <v>472.3923261542923</v>
+        <v>660.792466768602</v>
       </c>
       <c r="G41" t="n">
-        <v>56.92267495226126</v>
+        <v>245.322815566571</v>
       </c>
       <c r="H41" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="I41" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J41" t="n">
         <v>212.7607311991985</v>
@@ -7421,13 +7421,13 @@
         <v>1351.835168271613</v>
       </c>
       <c r="N41" t="n">
-        <v>1829.150793665545</v>
+        <v>1829.150793665544</v>
       </c>
       <c r="O41" t="n">
-        <v>2266.531142399974</v>
+        <v>2266.531142399975</v>
       </c>
       <c r="P41" t="n">
-        <v>2605.324150033852</v>
+        <v>2605.324150033853</v>
       </c>
       <c r="Q41" t="n">
         <v>2811.570842789225</v>
@@ -7442,19 +7442,19 @@
         <v>2846.133747613063</v>
       </c>
       <c r="U41" t="n">
-        <v>2701.403056738391</v>
+        <v>2592.571494803138</v>
       </c>
       <c r="V41" t="n">
-        <v>2370.34016939482</v>
+        <v>2592.571494803138</v>
       </c>
       <c r="W41" t="n">
-        <v>2017.571514124706</v>
+        <v>2592.571494803138</v>
       </c>
       <c r="X41" t="n">
-        <v>2017.571514124706</v>
+        <v>2592.571494803138</v>
       </c>
       <c r="Y41" t="n">
-        <v>1627.432182148895</v>
+        <v>2202.432162827326</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>165.5734127355554</v>
       </c>
       <c r="H42" t="n">
-        <v>73.01901006675568</v>
+        <v>73.0190100667557</v>
       </c>
       <c r="I42" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J42" t="n">
-        <v>216.3898787306073</v>
+        <v>248.3824682498127</v>
       </c>
       <c r="K42" t="n">
-        <v>421.0194677745928</v>
+        <v>453.0120572937983</v>
       </c>
       <c r="L42" t="n">
-        <v>742.4917442591467</v>
+        <v>774.4843337783522</v>
       </c>
       <c r="M42" t="n">
-        <v>1136.991596221186</v>
+        <v>1168.984185740391</v>
       </c>
       <c r="N42" t="n">
-        <v>1556.341330309462</v>
+        <v>1588.333919828667</v>
       </c>
       <c r="O42" t="n">
-        <v>1917.744615181035</v>
+        <v>1949.73720470024</v>
       </c>
       <c r="P42" t="n">
-        <v>2188.469546923609</v>
+        <v>2220.462136442815</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.499312733753</v>
+        <v>2559.491902252958</v>
       </c>
       <c r="R42" t="n">
         <v>2559.491902252958</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.14458864926</v>
+        <v>914.3133990737093</v>
       </c>
       <c r="C43" t="n">
-        <v>920.2084057213533</v>
+        <v>745.3772161458024</v>
       </c>
       <c r="D43" t="n">
-        <v>770.0917663090175</v>
+        <v>745.3772161458024</v>
       </c>
       <c r="E43" t="n">
-        <v>622.1786727266244</v>
+        <v>597.4641225634093</v>
       </c>
       <c r="F43" t="n">
-        <v>475.288725228714</v>
+        <v>450.5741750654989</v>
       </c>
       <c r="G43" t="n">
-        <v>307.4077178878708</v>
+        <v>282.6931677246557</v>
       </c>
       <c r="H43" t="n">
         <v>159.6064314710032</v>
       </c>
       <c r="I43" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J43" t="n">
-        <v>89.69931153379835</v>
+        <v>89.69931153379837</v>
       </c>
       <c r="K43" t="n">
         <v>273.3982307357553</v>
@@ -7591,28 +7591,28 @@
         <v>1744.588114307978</v>
       </c>
       <c r="R43" t="n">
-        <v>1744.588114307978</v>
+        <v>1646.746453800321</v>
       </c>
       <c r="S43" t="n">
-        <v>1744.588114307978</v>
+        <v>1646.746453800321</v>
       </c>
       <c r="T43" t="n">
-        <v>1744.588114307978</v>
+        <v>1424.218563494263</v>
       </c>
       <c r="U43" t="n">
-        <v>1744.588114307978</v>
+        <v>1135.105978217239</v>
       </c>
       <c r="V43" t="n">
-        <v>1744.588114307978</v>
+        <v>1135.105978217239</v>
       </c>
       <c r="W43" t="n">
-        <v>1719.575183521047</v>
+        <v>1135.105978217239</v>
       </c>
       <c r="X43" t="n">
-        <v>1491.58563262303</v>
+        <v>1135.105978217239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1270.7930534795</v>
+        <v>914.3133990737093</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1269.166483542144</v>
+        <v>1543.295365164754</v>
       </c>
       <c r="C44" t="n">
-        <v>1269.166483542144</v>
+        <v>1543.295365164754</v>
       </c>
       <c r="D44" t="n">
-        <v>1269.166483542144</v>
+        <v>1185.029666558004</v>
       </c>
       <c r="E44" t="n">
-        <v>883.3782309438999</v>
+        <v>1185.029666558004</v>
       </c>
       <c r="F44" t="n">
-        <v>472.3923261542923</v>
+        <v>774.0437617683961</v>
       </c>
       <c r="G44" t="n">
-        <v>56.92267495226126</v>
+        <v>358.574110566365</v>
       </c>
       <c r="H44" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="I44" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J44" t="n">
         <v>212.7607311991985</v>
@@ -7655,10 +7655,10 @@
         <v>886.6603658844231</v>
       </c>
       <c r="M44" t="n">
-        <v>1351.835168271614</v>
+        <v>1351.835168271613</v>
       </c>
       <c r="N44" t="n">
-        <v>1829.150793665545</v>
+        <v>1829.150793665544</v>
       </c>
       <c r="O44" t="n">
         <v>2266.531142399974</v>
@@ -7679,19 +7679,19 @@
         <v>2846.133747613063</v>
       </c>
       <c r="U44" t="n">
-        <v>2750.434301186728</v>
+        <v>2659.66911067176</v>
       </c>
       <c r="V44" t="n">
-        <v>2419.371413843157</v>
+        <v>2659.66911067176</v>
       </c>
       <c r="W44" t="n">
-        <v>2419.371413843157</v>
+        <v>2306.900455401646</v>
       </c>
       <c r="X44" t="n">
-        <v>2045.905655582078</v>
+        <v>1933.434697140566</v>
       </c>
       <c r="Y44" t="n">
-        <v>1655.766323606266</v>
+        <v>1543.295365164754</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>165.5734127355554</v>
       </c>
       <c r="H45" t="n">
-        <v>73.01901006675568</v>
+        <v>73.0190100667557</v>
       </c>
       <c r="I45" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J45" t="n">
         <v>248.3824682498127</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1089.14458864926</v>
+        <v>838.6595457136506</v>
       </c>
       <c r="C46" t="n">
-        <v>920.2084057213533</v>
+        <v>669.7233627857437</v>
       </c>
       <c r="D46" t="n">
-        <v>770.0917663090175</v>
+        <v>519.6067233734079</v>
       </c>
       <c r="E46" t="n">
-        <v>622.1786727266244</v>
+        <v>371.6936297910148</v>
       </c>
       <c r="F46" t="n">
-        <v>475.288725228714</v>
+        <v>224.8036822931045</v>
       </c>
       <c r="G46" t="n">
-        <v>307.4077178878708</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="H46" t="n">
-        <v>159.6064314710032</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="I46" t="n">
-        <v>56.92267495226126</v>
+        <v>56.92267495226127</v>
       </c>
       <c r="J46" t="n">
-        <v>89.69931153379835</v>
+        <v>89.69931153379837</v>
       </c>
       <c r="K46" t="n">
         <v>273.3982307357553</v>
@@ -7831,25 +7831,25 @@
         <v>1744.588114307978</v>
       </c>
       <c r="S46" t="n">
-        <v>1744.588114307978</v>
+        <v>1718.312968199365</v>
       </c>
       <c r="T46" t="n">
-        <v>1522.060224001921</v>
+        <v>1495.785077893307</v>
       </c>
       <c r="U46" t="n">
-        <v>1232.947638724897</v>
+        <v>1495.785077893307</v>
       </c>
       <c r="V46" t="n">
-        <v>1232.947638724897</v>
+        <v>1241.10058968742</v>
       </c>
       <c r="W46" t="n">
-        <v>1232.947638724897</v>
+        <v>1241.10058968742</v>
       </c>
       <c r="X46" t="n">
-        <v>1232.947638724897</v>
+        <v>1241.10058968742</v>
       </c>
       <c r="Y46" t="n">
-        <v>1232.947638724897</v>
+        <v>1020.30801054389</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>168.7434581780648</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>21.89339468985721</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780653</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>168.7434581780653</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.36925650589421</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>186.4490126143848</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>64.26009269441391</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>10.26256106705503</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>86.33229498204585</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>118.6480419711428</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>13.20592282222421</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>118.6480419711422</v>
       </c>
       <c r="K18" t="n">
-        <v>202.6342943665831</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>13.20592282222421</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>202.6342943665831</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>202.6342943665827</v>
       </c>
       <c r="R21" t="n">
         <v>13.20592282222421</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>202.6342943665828</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.26256106705526</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>13.20592282222421</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>118.6480419711429</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>202.6342943665829</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>13.20592282222421</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>86.33229498204645</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>202.6342943665832</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>13.20592282222421</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>118.6480419711429</v>
+        <v>64.26009269441303</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>13.20592282222421</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>118.6480419711429</v>
+        <v>118.6480419711423</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>118.6480419711431</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>170.3185473774873</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>13.20592282222424</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>86.33229498204665</v>
+        <v>118.6480419711431</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>13.20592282222424</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>126.5345705216362</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247044</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>197.5086321433484</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>80.85095794181353</v>
+        <v>164.5254398225542</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,19 +22781,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>294.2402168769243</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.1144470511251</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22832,7 +22832,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22960,7 +22960,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>103.0154349816507</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23008,7 +23008,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>115.2459207102713</v>
       </c>
     </row>
     <row r="8">
@@ -23018,25 +23018,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>150.0877170317453</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247044</v>
@@ -23072,7 +23072,7 @@
         <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>152.6908186514235</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23084,10 +23084,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,19 +23176,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>49.7619384788868</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23224,28 +23224,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>80.85095794181376</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>298.6349212579627</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>56.73689220480043</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>118.1484684587248</v>
       </c>
       <c r="T11" t="n">
-        <v>205.6393302471496</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>161.11541026578</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>298.5483744233553</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>83.61657822172413</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>96.86324390258109</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>192.8430046870357</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.3026114029971</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2214594242532</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>261.7601968575293</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>209.8582055613934</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.3149546900107</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>127.1461125031385</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>56.7368922048004</v>
+        <v>56.73689220480037</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23671,7 +23671,7 @@
         <v>146.3232735526989</v>
       </c>
       <c r="I16" t="n">
-        <v>101.6569189535546</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.3964848562579</v>
+        <v>210.0534038098125</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>298.6349212579627</v>
       </c>
       <c r="I17" t="n">
-        <v>13.14450172835181</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,16 +23786,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.598401852833</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>166.2021972674347</v>
       </c>
       <c r="H19" t="n">
-        <v>146.3232735526989</v>
+        <v>74.31433710905429</v>
       </c>
       <c r="I19" t="n">
-        <v>101.6569189535546</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2214594242532</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.3964848562579</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.3149546900107</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>298.6349212579627</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.7368922048004</v>
+        <v>50.84544872951117</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>118.1484684587248</v>
       </c>
       <c r="T20" t="n">
-        <v>205.6393302471496</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>79.53782152700165</v>
+        <v>251.0266302818266</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>13.78000435127532</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>13.78000435127464</v>
       </c>
       <c r="H22" t="n">
         <v>146.3232735526989</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>96.86324390258108</v>
+        <v>96.86324390258106</v>
       </c>
       <c r="S22" t="n">
         <v>192.8430046870357</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>289.3515363997662</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,7 +24215,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24224,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.7368922048004</v>
+        <v>56.73689220480037</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24254,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>118.1484684587248</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>205.6393302471496</v>
       </c>
       <c r="U23" t="n">
-        <v>15.35365248115752</v>
+        <v>251.0266302818266</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2021972674347</v>
+        <v>6.669986161649405</v>
       </c>
       <c r="H25" t="n">
         <v>146.3232735526989</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>96.86324390258108</v>
+        <v>96.86324390258106</v>
       </c>
       <c r="S25" t="n">
-        <v>191.3652211356136</v>
+        <v>192.8430046870357</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24452,16 +24452,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.3149546900107</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>298.6349212579627</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>56.7368922048004</v>
+        <v>51.42395111107152</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24491,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.1484684587248</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>205.6393302471496</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>21.05214134108309</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2021972674347</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>146.3232735526989</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>101.6569189535546</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>96.86324390258106</v>
       </c>
       <c r="S28" t="n">
-        <v>169.2538267125697</v>
+        <v>108.940819402564</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2214594242532</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,16 +24689,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.3149546900107</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>298.6349212579627</v>
       </c>
       <c r="I29" t="n">
-        <v>56.7368922048004</v>
+        <v>56.73689220480037</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,19 +24728,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>55.10168939428972</v>
+        <v>118.1484684587248</v>
       </c>
       <c r="T29" t="n">
         <v>205.6393302471496</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0266302818266</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>260.4642530208425</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>144.9561790951468</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>96.86324390258106</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>192.8430046870357</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.3964848562579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>287.5601446512404</v>
+        <v>298.6349212579627</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>56.73689220480037</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,19 +24965,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.1484684587248</v>
+        <v>39.70305833785058</v>
       </c>
       <c r="T32" t="n">
-        <v>205.6393302471496</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0266302818266</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.2021972674347</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>146.3232735526989</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>101.6569189535546</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>96.86324390258106</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>192.8430046870357</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.3026114029971</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2214594242532</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>261.7601968575286</v>
       </c>
       <c r="X34" t="n">
-        <v>69.64381168610038</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25163,16 +25163,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>207.9202296506973</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>56.7368922048004</v>
+        <v>56.73689220480037</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,10 +25205,10 @@
         <v>118.1484684587248</v>
       </c>
       <c r="T35" t="n">
-        <v>205.6393302471496</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0266302818266</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>257.710144437961</v>
       </c>
     </row>
     <row r="36">
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2021972674347</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>146.3232735526989</v>
+        <v>72.10044242351901</v>
       </c>
       <c r="I37" t="n">
-        <v>101.6569189535546</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>96.86324390258108</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>192.8430046870357</v>
@@ -25366,19 +25366,19 @@
         <v>220.3026114029971</v>
       </c>
       <c r="U37" t="n">
-        <v>20.91829383325768</v>
+        <v>286.2214594242532</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>349.1475086307487</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,7 +25406,7 @@
         <v>411.3149546900107</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>298.6349212579627</v>
       </c>
       <c r="I38" t="n">
         <v>56.7368922048004</v>
@@ -25439,10 +25439,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.1484684587248</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>142.5925511827146</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.665186455729042</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>286.2214594242532</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>261.760196857529</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>298.6349212579627</v>
+        <v>112.1187820497961</v>
       </c>
       <c r="I41" t="n">
         <v>56.7368922048004</v>
@@ -25682,13 +25682,13 @@
         <v>205.6393302471496</v>
       </c>
       <c r="U41" t="n">
-        <v>107.7432463159014</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>24.46740466158293</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>96.86324390258108</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>192.8430046870357</v>
       </c>
       <c r="T43" t="n">
-        <v>220.3026114029971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2214594242532</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>261.760196857529</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>298.6349212579627</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>56.7368922048004</v>
@@ -25919,13 +25919,13 @@
         <v>205.6393302471496</v>
       </c>
       <c r="U44" t="n">
-        <v>156.2841783197551</v>
+        <v>66.42663970993607</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.46696060705671</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>146.3232735526989</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>101.6569189535546</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26071,16 @@
         <v>96.86324390258108</v>
       </c>
       <c r="S46" t="n">
-        <v>192.8430046870357</v>
+        <v>166.8306100395085</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2214594242532</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>749985.690482893</v>
+        <v>749985.6904828931</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>749985.6904828931</v>
+        <v>749985.6904828933</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>749985.690482893</v>
+        <v>749985.6904828929</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778367.7708845186</v>
+        <v>778367.7708845189</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778367.770884519</v>
+        <v>778367.7708845189</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778367.7708845191</v>
+        <v>778367.7708845189</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778367.7708845189</v>
+        <v>778367.770884519</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778367.7708845189</v>
+        <v>778367.7708845191</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778367.770884519</v>
+        <v>778367.7708845191</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778367.7708845187</v>
+        <v>778367.7708845189</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778367.7708845189</v>
+        <v>778367.7708845187</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778367.7708845187</v>
+        <v>778367.7708845189</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778367.7708845187</v>
+        <v>778367.7708845189</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778367.7708845187</v>
+        <v>778367.770884519</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>336568.7935437394</v>
+        <v>336568.7935437395</v>
       </c>
       <c r="C2" t="n">
         <v>336568.7935437396</v>
@@ -26323,7 +26323,7 @@
         <v>350894.1121967408</v>
       </c>
       <c r="F2" t="n">
-        <v>350894.1121967409</v>
+        <v>350894.112196741</v>
       </c>
       <c r="G2" t="n">
         <v>350894.112196741</v>
@@ -26332,28 +26332,28 @@
         <v>350894.1121967409</v>
       </c>
       <c r="I2" t="n">
-        <v>350894.1121967409</v>
+        <v>350894.112196741</v>
       </c>
       <c r="J2" t="n">
         <v>350894.1121967409</v>
       </c>
       <c r="K2" t="n">
-        <v>350894.112196741</v>
+        <v>350894.1121967409</v>
       </c>
       <c r="L2" t="n">
         <v>350894.1121967409</v>
       </c>
       <c r="M2" t="n">
-        <v>350894.1121967409</v>
+        <v>350894.112196741</v>
       </c>
       <c r="N2" t="n">
-        <v>350894.1121967409</v>
+        <v>350894.112196741</v>
       </c>
       <c r="O2" t="n">
         <v>350894.1121967409</v>
       </c>
       <c r="P2" t="n">
-        <v>350894.1121967408</v>
+        <v>350894.112196741</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>67697.58141005253</v>
+        <v>67697.58141005268</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>17680.67611138327</v>
+        <v>17680.67611138332</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16327.31484241939</v>
+        <v>16175.59256035158</v>
       </c>
       <c r="C4" t="n">
-        <v>16327.3148424194</v>
+        <v>16175.59256035159</v>
       </c>
       <c r="D4" t="n">
-        <v>16327.31484241938</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="E4" t="n">
-        <v>13463.02806134445</v>
+        <v>13339.15352672902</v>
       </c>
       <c r="F4" t="n">
-        <v>13463.02806134444</v>
+        <v>13339.15352672901</v>
       </c>
       <c r="G4" t="n">
-        <v>13463.02806134444</v>
+        <v>13339.15352672901</v>
       </c>
       <c r="H4" t="n">
-        <v>13463.02806134444</v>
+        <v>13339.15352672901</v>
       </c>
       <c r="I4" t="n">
-        <v>13463.02806134445</v>
+        <v>13339.15352672901</v>
       </c>
       <c r="J4" t="n">
-        <v>13463.02806134444</v>
+        <v>13339.15352672902</v>
       </c>
       <c r="K4" t="n">
-        <v>13463.02806134444</v>
+        <v>13339.15352672902</v>
       </c>
       <c r="L4" t="n">
-        <v>13463.02806134444</v>
+        <v>13339.15352672901</v>
       </c>
       <c r="M4" t="n">
-        <v>13463.02806134444</v>
+        <v>13339.15352672901</v>
       </c>
       <c r="N4" t="n">
-        <v>13463.02806134445</v>
+        <v>13339.15352672902</v>
       </c>
       <c r="O4" t="n">
-        <v>13463.02806134445</v>
+        <v>13339.15352672902</v>
       </c>
       <c r="P4" t="n">
-        <v>13463.02806134445</v>
+        <v>13339.15352672902</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984476</v>
@@ -26476,31 +26476,31 @@
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>64885.98227866146</v>
+        <v>64885.98227866148</v>
       </c>
       <c r="F5" t="n">
-        <v>64885.98227866147</v>
+        <v>64885.98227866148</v>
       </c>
       <c r="G5" t="n">
+        <v>64885.9822786615</v>
+      </c>
+      <c r="H5" t="n">
+        <v>64885.9822786615</v>
+      </c>
+      <c r="I5" t="n">
+        <v>64885.9822786615</v>
+      </c>
+      <c r="J5" t="n">
+        <v>64885.9822786615</v>
+      </c>
+      <c r="K5" t="n">
+        <v>64885.9822786615</v>
+      </c>
+      <c r="L5" t="n">
         <v>64885.98227866148</v>
       </c>
-      <c r="H5" t="n">
+      <c r="M5" t="n">
         <v>64885.98227866148</v>
-      </c>
-      <c r="I5" t="n">
-        <v>64885.98227866148</v>
-      </c>
-      <c r="J5" t="n">
-        <v>64885.98227866148</v>
-      </c>
-      <c r="K5" t="n">
-        <v>64885.98227866148</v>
-      </c>
-      <c r="L5" t="n">
-        <v>64885.98227866147</v>
-      </c>
-      <c r="M5" t="n">
-        <v>64885.98227866147</v>
       </c>
       <c r="N5" t="n">
         <v>64885.98227866148</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-887448.0773144449</v>
+        <v>-887296.3550323769</v>
       </c>
       <c r="C6" t="n">
-        <v>227303.7062614754</v>
+        <v>227455.4285435432</v>
       </c>
       <c r="D6" t="n">
-        <v>227303.7062614755</v>
+        <v>227455.4285435432</v>
       </c>
       <c r="E6" t="n">
-        <v>204847.5204466823</v>
+        <v>204971.3949812976</v>
       </c>
       <c r="F6" t="n">
-        <v>272545.1018567348</v>
+        <v>272668.9763913505</v>
       </c>
       <c r="G6" t="n">
-        <v>272545.1018567351</v>
+        <v>272668.9763913505</v>
       </c>
       <c r="H6" t="n">
-        <v>272545.101856735</v>
+        <v>272668.9763913504</v>
       </c>
       <c r="I6" t="n">
-        <v>272545.101856735</v>
+        <v>272668.9763913505</v>
       </c>
       <c r="J6" t="n">
-        <v>104939.9240467523</v>
+        <v>105063.7985813678</v>
       </c>
       <c r="K6" t="n">
-        <v>272545.1018567351</v>
+        <v>272668.9763913504</v>
       </c>
       <c r="L6" t="n">
-        <v>272545.1018567351</v>
+        <v>272668.9763913506</v>
       </c>
       <c r="M6" t="n">
-        <v>254864.4257453518</v>
+        <v>254988.3002799672</v>
       </c>
       <c r="N6" t="n">
-        <v>272545.101856735</v>
+        <v>272668.9763913505</v>
       </c>
       <c r="O6" t="n">
-        <v>272545.101856735</v>
+        <v>272668.9763913504</v>
       </c>
       <c r="P6" t="n">
-        <v>272545.1018567348</v>
+        <v>272668.9763913505</v>
       </c>
     </row>
   </sheetData>
@@ -26744,31 +26744,31 @@
         <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
-        <v>991.9609777496753</v>
+        <v>991.9609777496754</v>
       </c>
       <c r="F3" t="n">
-        <v>991.9609777496755</v>
+        <v>991.9609777496756</v>
       </c>
       <c r="G3" t="n">
-        <v>991.9609777496755</v>
+        <v>991.9609777496756</v>
       </c>
       <c r="H3" t="n">
-        <v>991.9609777496755</v>
+        <v>991.9609777496756</v>
       </c>
       <c r="I3" t="n">
-        <v>991.9609777496755</v>
+        <v>991.9609777496756</v>
       </c>
       <c r="J3" t="n">
-        <v>991.9609777496755</v>
+        <v>991.9609777496756</v>
       </c>
       <c r="K3" t="n">
-        <v>991.9609777496755</v>
+        <v>991.9609777496756</v>
       </c>
       <c r="L3" t="n">
-        <v>991.9609777496755</v>
+        <v>991.9609777496756</v>
       </c>
       <c r="M3" t="n">
-        <v>991.9609777496755</v>
+        <v>991.9609777496756</v>
       </c>
       <c r="N3" t="n">
         <v>991.9609777496754</v>
@@ -26796,40 +26796,40 @@
         <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>711.5334369032655</v>
+        <v>711.5334369032657</v>
       </c>
       <c r="F4" t="n">
-        <v>711.5334369032655</v>
+        <v>711.5334369032657</v>
       </c>
       <c r="G4" t="n">
+        <v>711.533436903266</v>
+      </c>
+      <c r="H4" t="n">
+        <v>711.533436903266</v>
+      </c>
+      <c r="I4" t="n">
+        <v>711.533436903266</v>
+      </c>
+      <c r="J4" t="n">
+        <v>711.533436903266</v>
+      </c>
+      <c r="K4" t="n">
+        <v>711.533436903266</v>
+      </c>
+      <c r="L4" t="n">
         <v>711.5334369032657</v>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>711.5334369032657</v>
       </c>
-      <c r="I4" t="n">
-        <v>711.5334369032657</v>
-      </c>
-      <c r="J4" t="n">
-        <v>711.5334369032657</v>
-      </c>
-      <c r="K4" t="n">
-        <v>711.5334369032657</v>
-      </c>
-      <c r="L4" t="n">
-        <v>711.5334369032655</v>
-      </c>
-      <c r="M4" t="n">
-        <v>711.5334369032655</v>
-      </c>
       <c r="N4" t="n">
-        <v>711.5334369032657</v>
+        <v>711.5334369032659</v>
       </c>
       <c r="O4" t="n">
-        <v>711.5334369032657</v>
+        <v>711.5334369032659</v>
       </c>
       <c r="P4" t="n">
-        <v>711.5334369032657</v>
+        <v>711.5334369032659</v>
       </c>
     </row>
   </sheetData>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>57.89608563213574</v>
+        <v>57.89608563213585</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>70.94860480322654</v>
+        <v>70.94860480322677</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>70.94860480322654</v>
+        <v>70.94860480322677</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>70.94860480322654</v>
+        <v>70.94860480322677</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31765,13 +31765,13 @@
         <v>507.2609295414081</v>
       </c>
       <c r="L11" t="n">
-        <v>629.3020381758066</v>
+        <v>629.3020381758067</v>
       </c>
       <c r="M11" t="n">
-        <v>700.2197709921112</v>
+        <v>700.2197709921113</v>
       </c>
       <c r="N11" t="n">
-        <v>711.5500589439957</v>
+        <v>711.5500589439959</v>
       </c>
       <c r="O11" t="n">
         <v>671.8965434766658</v>
@@ -31792,7 +31792,7 @@
         <v>17.45651931698172</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3190226260099455</v>
+        <v>0.3190226260099456</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>20.60658559438477</v>
       </c>
       <c r="I12" t="n">
-        <v>73.46126108806558</v>
+        <v>73.4612610880656</v>
       </c>
       <c r="J12" t="n">
         <v>201.583315299111</v>
@@ -31850,10 +31850,10 @@
         <v>540.618732873573</v>
       </c>
       <c r="N12" t="n">
-        <v>554.9273020714905</v>
+        <v>554.9273020714907</v>
       </c>
       <c r="O12" t="n">
-        <v>507.6500675470437</v>
+        <v>507.6500675470438</v>
       </c>
       <c r="P12" t="n">
         <v>407.4339344270318</v>
@@ -31865,10 +31865,10 @@
         <v>132.4735811417397</v>
       </c>
       <c r="S12" t="n">
-        <v>39.63164849782898</v>
+        <v>39.63164849782899</v>
       </c>
       <c r="T12" t="n">
-        <v>8.600114514641049</v>
+        <v>8.600114514641051</v>
       </c>
       <c r="U12" t="n">
         <v>0.1403718364740107</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.788782091024004</v>
+        <v>1.788782091024005</v>
       </c>
       <c r="H13" t="n">
         <v>15.90389895474071</v>
       </c>
       <c r="I13" t="n">
-        <v>53.79355597370371</v>
+        <v>53.79355597370372</v>
       </c>
       <c r="J13" t="n">
         <v>126.4668938353971</v>
@@ -31926,10 +31926,10 @@
         <v>265.9431119691507</v>
       </c>
       <c r="M13" t="n">
-        <v>280.3997235956991</v>
+        <v>280.3997235956992</v>
       </c>
       <c r="N13" t="n">
-        <v>273.7324448927917</v>
+        <v>273.7324448927918</v>
       </c>
       <c r="O13" t="n">
         <v>252.8362177385567</v>
@@ -31941,13 +31941,13 @@
         <v>149.786107640201</v>
       </c>
       <c r="R13" t="n">
-        <v>80.4301474745884</v>
+        <v>80.43014747458841</v>
       </c>
       <c r="S13" t="n">
-        <v>31.1735933499365</v>
+        <v>31.17359334993651</v>
       </c>
       <c r="T13" t="n">
-        <v>7.64297802528438</v>
+        <v>7.642978025284381</v>
       </c>
       <c r="U13" t="n">
         <v>0.09756993223767309</v>
@@ -31990,19 +31990,19 @@
         <v>3.987782825124321</v>
       </c>
       <c r="H14" t="n">
-        <v>40.83988085780446</v>
+        <v>40.83988085780447</v>
       </c>
       <c r="I14" t="n">
         <v>153.7389973656055</v>
       </c>
       <c r="J14" t="n">
-        <v>338.4580825538956</v>
+        <v>338.4580825538957</v>
       </c>
       <c r="K14" t="n">
         <v>507.2609295414082</v>
       </c>
       <c r="L14" t="n">
-        <v>629.3020381758067</v>
+        <v>629.3020381758068</v>
       </c>
       <c r="M14" t="n">
         <v>700.2197709921114</v>
@@ -32011,7 +32011,7 @@
         <v>711.550058943996</v>
       </c>
       <c r="O14" t="n">
-        <v>671.8965434766659</v>
+        <v>671.896543476666</v>
       </c>
       <c r="P14" t="n">
         <v>573.4481549814092</v>
@@ -32020,13 +32020,13 @@
         <v>430.6356825566443</v>
       </c>
       <c r="R14" t="n">
-        <v>250.4975628887158</v>
+        <v>250.4975628887159</v>
       </c>
       <c r="S14" t="n">
-        <v>90.87160112752055</v>
+        <v>90.87160112752056</v>
       </c>
       <c r="T14" t="n">
-        <v>17.45651931698172</v>
+        <v>17.45651931698173</v>
       </c>
       <c r="U14" t="n">
         <v>0.3190226260099456</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.133651914404962</v>
+        <v>2.133651914404963</v>
       </c>
       <c r="H15" t="n">
-        <v>20.60658559438477</v>
+        <v>20.60658559438478</v>
       </c>
       <c r="I15" t="n">
-        <v>73.4612610880656</v>
+        <v>73.46126108806561</v>
       </c>
       <c r="J15" t="n">
         <v>201.583315299111</v>
       </c>
       <c r="K15" t="n">
-        <v>344.5379935642434</v>
+        <v>344.5379935642435</v>
       </c>
       <c r="L15" t="n">
-        <v>463.2738509763933</v>
+        <v>463.2738509763934</v>
       </c>
       <c r="M15" t="n">
         <v>540.6187328735731</v>
       </c>
       <c r="N15" t="n">
-        <v>554.9273020714907</v>
+        <v>554.9273020714908</v>
       </c>
       <c r="O15" t="n">
-        <v>507.6500675470438</v>
+        <v>507.6500675470439</v>
       </c>
       <c r="P15" t="n">
         <v>407.4339344270319</v>
       </c>
       <c r="Q15" t="n">
-        <v>272.3587952493071</v>
+        <v>272.3587952493072</v>
       </c>
       <c r="R15" t="n">
         <v>132.4735811417397</v>
       </c>
       <c r="S15" t="n">
-        <v>39.63164849782899</v>
+        <v>39.631648497829</v>
       </c>
       <c r="T15" t="n">
-        <v>8.600114514641051</v>
+        <v>8.600114514641053</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1403718364740107</v>
+        <v>0.1403718364740108</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32160,7 +32160,7 @@
         <v>207.8239556662434</v>
       </c>
       <c r="L16" t="n">
-        <v>265.9431119691507</v>
+        <v>265.9431119691508</v>
       </c>
       <c r="M16" t="n">
         <v>280.3997235956992</v>
@@ -32172,22 +32172,22 @@
         <v>252.8362177385567</v>
       </c>
       <c r="P16" t="n">
-        <v>216.3450630816668</v>
+        <v>216.3450630816669</v>
       </c>
       <c r="Q16" t="n">
         <v>149.786107640201</v>
       </c>
       <c r="R16" t="n">
-        <v>80.43014747458841</v>
+        <v>80.43014747458842</v>
       </c>
       <c r="S16" t="n">
         <v>31.17359334993651</v>
       </c>
       <c r="T16" t="n">
-        <v>7.642978025284382</v>
+        <v>7.642978025284383</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0975699322376731</v>
+        <v>0.09756993223767312</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,19 +32227,19 @@
         <v>3.987782825124321</v>
       </c>
       <c r="H17" t="n">
-        <v>40.83988085780446</v>
+        <v>40.83988085780447</v>
       </c>
       <c r="I17" t="n">
         <v>153.7389973656055</v>
       </c>
       <c r="J17" t="n">
-        <v>338.4580825538956</v>
+        <v>338.4580825538957</v>
       </c>
       <c r="K17" t="n">
         <v>507.2609295414082</v>
       </c>
       <c r="L17" t="n">
-        <v>629.3020381758067</v>
+        <v>629.3020381758068</v>
       </c>
       <c r="M17" t="n">
         <v>700.2197709921114</v>
@@ -32248,7 +32248,7 @@
         <v>711.550058943996</v>
       </c>
       <c r="O17" t="n">
-        <v>671.8965434766659</v>
+        <v>671.896543476666</v>
       </c>
       <c r="P17" t="n">
         <v>573.4481549814092</v>
@@ -32257,13 +32257,13 @@
         <v>430.6356825566443</v>
       </c>
       <c r="R17" t="n">
-        <v>250.4975628887158</v>
+        <v>250.4975628887159</v>
       </c>
       <c r="S17" t="n">
-        <v>90.87160112752055</v>
+        <v>90.87160112752056</v>
       </c>
       <c r="T17" t="n">
-        <v>17.45651931698172</v>
+        <v>17.45651931698173</v>
       </c>
       <c r="U17" t="n">
         <v>0.3190226260099456</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.133651914404962</v>
+        <v>2.133651914404963</v>
       </c>
       <c r="H18" t="n">
-        <v>20.60658559438477</v>
+        <v>20.60658559438478</v>
       </c>
       <c r="I18" t="n">
-        <v>73.4612610880656</v>
+        <v>73.46126108806561</v>
       </c>
       <c r="J18" t="n">
         <v>201.583315299111</v>
       </c>
       <c r="K18" t="n">
-        <v>344.5379935642434</v>
+        <v>344.5379935642435</v>
       </c>
       <c r="L18" t="n">
-        <v>463.2738509763933</v>
+        <v>463.2738509763934</v>
       </c>
       <c r="M18" t="n">
         <v>540.6187328735731</v>
       </c>
       <c r="N18" t="n">
-        <v>554.9273020714907</v>
+        <v>554.9273020714908</v>
       </c>
       <c r="O18" t="n">
-        <v>507.6500675470438</v>
+        <v>507.6500675470439</v>
       </c>
       <c r="P18" t="n">
         <v>407.4339344270319</v>
       </c>
       <c r="Q18" t="n">
-        <v>272.3587952493071</v>
+        <v>272.3587952493072</v>
       </c>
       <c r="R18" t="n">
         <v>132.4735811417397</v>
       </c>
       <c r="S18" t="n">
-        <v>39.63164849782899</v>
+        <v>39.631648497829</v>
       </c>
       <c r="T18" t="n">
-        <v>8.600114514641051</v>
+        <v>8.600114514641053</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1403718364740107</v>
+        <v>0.1403718364740108</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32397,7 +32397,7 @@
         <v>207.8239556662434</v>
       </c>
       <c r="L19" t="n">
-        <v>265.9431119691507</v>
+        <v>265.9431119691508</v>
       </c>
       <c r="M19" t="n">
         <v>280.3997235956992</v>
@@ -32409,22 +32409,22 @@
         <v>252.8362177385567</v>
       </c>
       <c r="P19" t="n">
-        <v>216.3450630816668</v>
+        <v>216.3450630816669</v>
       </c>
       <c r="Q19" t="n">
         <v>149.786107640201</v>
       </c>
       <c r="R19" t="n">
-        <v>80.43014747458841</v>
+        <v>80.43014747458842</v>
       </c>
       <c r="S19" t="n">
         <v>31.17359334993651</v>
       </c>
       <c r="T19" t="n">
-        <v>7.642978025284382</v>
+        <v>7.642978025284383</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0975699322376731</v>
+        <v>0.09756993223767312</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,19 +32464,19 @@
         <v>3.987782825124321</v>
       </c>
       <c r="H20" t="n">
-        <v>40.83988085780446</v>
+        <v>40.83988085780447</v>
       </c>
       <c r="I20" t="n">
         <v>153.7389973656055</v>
       </c>
       <c r="J20" t="n">
-        <v>338.4580825538956</v>
+        <v>338.4580825538957</v>
       </c>
       <c r="K20" t="n">
         <v>507.2609295414082</v>
       </c>
       <c r="L20" t="n">
-        <v>629.3020381758067</v>
+        <v>629.3020381758068</v>
       </c>
       <c r="M20" t="n">
         <v>700.2197709921114</v>
@@ -32485,7 +32485,7 @@
         <v>711.550058943996</v>
       </c>
       <c r="O20" t="n">
-        <v>671.8965434766659</v>
+        <v>671.896543476666</v>
       </c>
       <c r="P20" t="n">
         <v>573.4481549814092</v>
@@ -32494,13 +32494,13 @@
         <v>430.6356825566443</v>
       </c>
       <c r="R20" t="n">
-        <v>250.4975628887158</v>
+        <v>250.4975628887159</v>
       </c>
       <c r="S20" t="n">
-        <v>90.87160112752055</v>
+        <v>90.87160112752056</v>
       </c>
       <c r="T20" t="n">
-        <v>17.45651931698172</v>
+        <v>17.45651931698173</v>
       </c>
       <c r="U20" t="n">
         <v>0.3190226260099456</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.133651914404962</v>
+        <v>2.133651914404963</v>
       </c>
       <c r="H21" t="n">
-        <v>20.60658559438477</v>
+        <v>20.60658559438478</v>
       </c>
       <c r="I21" t="n">
-        <v>73.4612610880656</v>
+        <v>73.46126108806561</v>
       </c>
       <c r="J21" t="n">
         <v>201.583315299111</v>
       </c>
       <c r="K21" t="n">
-        <v>344.5379935642434</v>
+        <v>344.5379935642435</v>
       </c>
       <c r="L21" t="n">
-        <v>463.2738509763933</v>
+        <v>463.2738509763934</v>
       </c>
       <c r="M21" t="n">
         <v>540.6187328735731</v>
       </c>
       <c r="N21" t="n">
-        <v>554.9273020714907</v>
+        <v>554.9273020714908</v>
       </c>
       <c r="O21" t="n">
-        <v>507.6500675470438</v>
+        <v>507.6500675470439</v>
       </c>
       <c r="P21" t="n">
         <v>407.4339344270319</v>
       </c>
       <c r="Q21" t="n">
-        <v>272.3587952493071</v>
+        <v>272.3587952493072</v>
       </c>
       <c r="R21" t="n">
         <v>132.4735811417397</v>
       </c>
       <c r="S21" t="n">
-        <v>39.63164849782899</v>
+        <v>39.631648497829</v>
       </c>
       <c r="T21" t="n">
-        <v>8.600114514641051</v>
+        <v>8.600114514641053</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1403718364740107</v>
+        <v>0.1403718364740108</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32634,7 +32634,7 @@
         <v>207.8239556662434</v>
       </c>
       <c r="L22" t="n">
-        <v>265.9431119691507</v>
+        <v>265.9431119691508</v>
       </c>
       <c r="M22" t="n">
         <v>280.3997235956992</v>
@@ -32646,22 +32646,22 @@
         <v>252.8362177385567</v>
       </c>
       <c r="P22" t="n">
-        <v>216.3450630816668</v>
+        <v>216.3450630816669</v>
       </c>
       <c r="Q22" t="n">
         <v>149.786107640201</v>
       </c>
       <c r="R22" t="n">
-        <v>80.43014747458841</v>
+        <v>80.43014747458842</v>
       </c>
       <c r="S22" t="n">
         <v>31.17359334993651</v>
       </c>
       <c r="T22" t="n">
-        <v>7.642978025284382</v>
+        <v>7.642978025284383</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0975699322376731</v>
+        <v>0.09756993223767312</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,19 +32701,19 @@
         <v>3.987782825124321</v>
       </c>
       <c r="H23" t="n">
-        <v>40.83988085780446</v>
+        <v>40.83988085780447</v>
       </c>
       <c r="I23" t="n">
         <v>153.7389973656055</v>
       </c>
       <c r="J23" t="n">
-        <v>338.4580825538956</v>
+        <v>338.4580825538957</v>
       </c>
       <c r="K23" t="n">
         <v>507.2609295414082</v>
       </c>
       <c r="L23" t="n">
-        <v>629.3020381758067</v>
+        <v>629.3020381758068</v>
       </c>
       <c r="M23" t="n">
         <v>700.2197709921114</v>
@@ -32722,7 +32722,7 @@
         <v>711.550058943996</v>
       </c>
       <c r="O23" t="n">
-        <v>671.8965434766659</v>
+        <v>671.896543476666</v>
       </c>
       <c r="P23" t="n">
         <v>573.4481549814092</v>
@@ -32731,13 +32731,13 @@
         <v>430.6356825566443</v>
       </c>
       <c r="R23" t="n">
-        <v>250.4975628887158</v>
+        <v>250.4975628887159</v>
       </c>
       <c r="S23" t="n">
-        <v>90.87160112752055</v>
+        <v>90.87160112752056</v>
       </c>
       <c r="T23" t="n">
-        <v>17.45651931698172</v>
+        <v>17.45651931698173</v>
       </c>
       <c r="U23" t="n">
         <v>0.3190226260099456</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.133651914404962</v>
+        <v>2.133651914404963</v>
       </c>
       <c r="H24" t="n">
-        <v>20.60658559438477</v>
+        <v>20.60658559438478</v>
       </c>
       <c r="I24" t="n">
-        <v>73.4612610880656</v>
+        <v>73.46126108806561</v>
       </c>
       <c r="J24" t="n">
         <v>201.583315299111</v>
       </c>
       <c r="K24" t="n">
-        <v>344.5379935642434</v>
+        <v>344.5379935642435</v>
       </c>
       <c r="L24" t="n">
-        <v>463.2738509763933</v>
+        <v>463.2738509763934</v>
       </c>
       <c r="M24" t="n">
         <v>540.6187328735731</v>
       </c>
       <c r="N24" t="n">
-        <v>554.9273020714907</v>
+        <v>554.9273020714908</v>
       </c>
       <c r="O24" t="n">
-        <v>507.6500675470438</v>
+        <v>507.6500675470439</v>
       </c>
       <c r="P24" t="n">
         <v>407.4339344270319</v>
       </c>
       <c r="Q24" t="n">
-        <v>272.3587952493071</v>
+        <v>272.3587952493072</v>
       </c>
       <c r="R24" t="n">
         <v>132.4735811417397</v>
       </c>
       <c r="S24" t="n">
-        <v>39.63164849782899</v>
+        <v>39.631648497829</v>
       </c>
       <c r="T24" t="n">
-        <v>8.600114514641051</v>
+        <v>8.600114514641053</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1403718364740107</v>
+        <v>0.1403718364740108</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32871,7 +32871,7 @@
         <v>207.8239556662434</v>
       </c>
       <c r="L25" t="n">
-        <v>265.9431119691507</v>
+        <v>265.9431119691508</v>
       </c>
       <c r="M25" t="n">
         <v>280.3997235956992</v>
@@ -32883,22 +32883,22 @@
         <v>252.8362177385567</v>
       </c>
       <c r="P25" t="n">
-        <v>216.3450630816668</v>
+        <v>216.3450630816669</v>
       </c>
       <c r="Q25" t="n">
         <v>149.786107640201</v>
       </c>
       <c r="R25" t="n">
-        <v>80.43014747458841</v>
+        <v>80.43014747458842</v>
       </c>
       <c r="S25" t="n">
         <v>31.17359334993651</v>
       </c>
       <c r="T25" t="n">
-        <v>7.642978025284382</v>
+        <v>7.642978025284383</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0975699322376731</v>
+        <v>0.09756993223767312</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,19 +32938,19 @@
         <v>3.987782825124321</v>
       </c>
       <c r="H26" t="n">
-        <v>40.83988085780446</v>
+        <v>40.83988085780447</v>
       </c>
       <c r="I26" t="n">
         <v>153.7389973656055</v>
       </c>
       <c r="J26" t="n">
-        <v>338.4580825538956</v>
+        <v>338.4580825538957</v>
       </c>
       <c r="K26" t="n">
         <v>507.2609295414082</v>
       </c>
       <c r="L26" t="n">
-        <v>629.3020381758067</v>
+        <v>629.3020381758068</v>
       </c>
       <c r="M26" t="n">
         <v>700.2197709921114</v>
@@ -32959,7 +32959,7 @@
         <v>711.550058943996</v>
       </c>
       <c r="O26" t="n">
-        <v>671.8965434766659</v>
+        <v>671.896543476666</v>
       </c>
       <c r="P26" t="n">
         <v>573.4481549814092</v>
@@ -32968,13 +32968,13 @@
         <v>430.6356825566443</v>
       </c>
       <c r="R26" t="n">
-        <v>250.4975628887158</v>
+        <v>250.4975628887159</v>
       </c>
       <c r="S26" t="n">
-        <v>90.87160112752055</v>
+        <v>90.87160112752056</v>
       </c>
       <c r="T26" t="n">
-        <v>17.45651931698172</v>
+        <v>17.45651931698173</v>
       </c>
       <c r="U26" t="n">
         <v>0.3190226260099456</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.133651914404962</v>
+        <v>2.133651914404963</v>
       </c>
       <c r="H27" t="n">
-        <v>20.60658559438477</v>
+        <v>20.60658559438478</v>
       </c>
       <c r="I27" t="n">
-        <v>73.4612610880656</v>
+        <v>73.46126108806561</v>
       </c>
       <c r="J27" t="n">
         <v>201.583315299111</v>
       </c>
       <c r="K27" t="n">
-        <v>344.5379935642434</v>
+        <v>344.5379935642435</v>
       </c>
       <c r="L27" t="n">
-        <v>463.2738509763933</v>
+        <v>463.2738509763934</v>
       </c>
       <c r="M27" t="n">
         <v>540.6187328735731</v>
       </c>
       <c r="N27" t="n">
-        <v>554.9273020714907</v>
+        <v>554.9273020714908</v>
       </c>
       <c r="O27" t="n">
-        <v>507.6500675470438</v>
+        <v>507.6500675470439</v>
       </c>
       <c r="P27" t="n">
         <v>407.4339344270319</v>
       </c>
       <c r="Q27" t="n">
-        <v>272.3587952493071</v>
+        <v>272.3587952493072</v>
       </c>
       <c r="R27" t="n">
         <v>132.4735811417397</v>
       </c>
       <c r="S27" t="n">
-        <v>39.63164849782899</v>
+        <v>39.631648497829</v>
       </c>
       <c r="T27" t="n">
-        <v>8.600114514641051</v>
+        <v>8.600114514641053</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1403718364740107</v>
+        <v>0.1403718364740108</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33108,7 +33108,7 @@
         <v>207.8239556662434</v>
       </c>
       <c r="L28" t="n">
-        <v>265.9431119691507</v>
+        <v>265.9431119691508</v>
       </c>
       <c r="M28" t="n">
         <v>280.3997235956992</v>
@@ -33120,22 +33120,22 @@
         <v>252.8362177385567</v>
       </c>
       <c r="P28" t="n">
-        <v>216.3450630816668</v>
+        <v>216.3450630816669</v>
       </c>
       <c r="Q28" t="n">
         <v>149.786107640201</v>
       </c>
       <c r="R28" t="n">
-        <v>80.43014747458841</v>
+        <v>80.43014747458842</v>
       </c>
       <c r="S28" t="n">
         <v>31.17359334993651</v>
       </c>
       <c r="T28" t="n">
-        <v>7.642978025284382</v>
+        <v>7.642978025284383</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0975699322376731</v>
+        <v>0.09756993223767312</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,19 +33175,19 @@
         <v>3.987782825124321</v>
       </c>
       <c r="H29" t="n">
-        <v>40.83988085780446</v>
+        <v>40.83988085780447</v>
       </c>
       <c r="I29" t="n">
         <v>153.7389973656055</v>
       </c>
       <c r="J29" t="n">
-        <v>338.4580825538956</v>
+        <v>338.4580825538957</v>
       </c>
       <c r="K29" t="n">
         <v>507.2609295414082</v>
       </c>
       <c r="L29" t="n">
-        <v>629.3020381758067</v>
+        <v>629.3020381758068</v>
       </c>
       <c r="M29" t="n">
         <v>700.2197709921114</v>
@@ -33196,7 +33196,7 @@
         <v>711.550058943996</v>
       </c>
       <c r="O29" t="n">
-        <v>671.8965434766659</v>
+        <v>671.896543476666</v>
       </c>
       <c r="P29" t="n">
         <v>573.4481549814092</v>
@@ -33205,13 +33205,13 @@
         <v>430.6356825566443</v>
       </c>
       <c r="R29" t="n">
-        <v>250.4975628887158</v>
+        <v>250.4975628887159</v>
       </c>
       <c r="S29" t="n">
-        <v>90.87160112752055</v>
+        <v>90.87160112752056</v>
       </c>
       <c r="T29" t="n">
-        <v>17.45651931698172</v>
+        <v>17.45651931698173</v>
       </c>
       <c r="U29" t="n">
         <v>0.3190226260099456</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.133651914404962</v>
+        <v>2.133651914404963</v>
       </c>
       <c r="H30" t="n">
-        <v>20.60658559438477</v>
+        <v>20.60658559438478</v>
       </c>
       <c r="I30" t="n">
-        <v>73.4612610880656</v>
+        <v>73.46126108806561</v>
       </c>
       <c r="J30" t="n">
         <v>201.583315299111</v>
       </c>
       <c r="K30" t="n">
-        <v>344.5379935642434</v>
+        <v>344.5379935642435</v>
       </c>
       <c r="L30" t="n">
-        <v>463.2738509763933</v>
+        <v>463.2738509763934</v>
       </c>
       <c r="M30" t="n">
         <v>540.6187328735731</v>
       </c>
       <c r="N30" t="n">
-        <v>554.9273020714907</v>
+        <v>554.9273020714908</v>
       </c>
       <c r="O30" t="n">
-        <v>507.6500675470438</v>
+        <v>507.6500675470439</v>
       </c>
       <c r="P30" t="n">
         <v>407.4339344270319</v>
       </c>
       <c r="Q30" t="n">
-        <v>272.3587952493071</v>
+        <v>272.3587952493072</v>
       </c>
       <c r="R30" t="n">
         <v>132.4735811417397</v>
       </c>
       <c r="S30" t="n">
-        <v>39.63164849782899</v>
+        <v>39.631648497829</v>
       </c>
       <c r="T30" t="n">
-        <v>8.600114514641051</v>
+        <v>8.600114514641053</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1403718364740107</v>
+        <v>0.1403718364740108</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33345,7 +33345,7 @@
         <v>207.8239556662434</v>
       </c>
       <c r="L31" t="n">
-        <v>265.9431119691507</v>
+        <v>265.9431119691508</v>
       </c>
       <c r="M31" t="n">
         <v>280.3997235956992</v>
@@ -33357,22 +33357,22 @@
         <v>252.8362177385567</v>
       </c>
       <c r="P31" t="n">
-        <v>216.3450630816668</v>
+        <v>216.3450630816669</v>
       </c>
       <c r="Q31" t="n">
         <v>149.786107640201</v>
       </c>
       <c r="R31" t="n">
-        <v>80.43014747458841</v>
+        <v>80.43014747458842</v>
       </c>
       <c r="S31" t="n">
         <v>31.17359334993651</v>
       </c>
       <c r="T31" t="n">
-        <v>7.642978025284382</v>
+        <v>7.642978025284383</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0975699322376731</v>
+        <v>0.09756993223767312</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,19 +33412,19 @@
         <v>3.987782825124321</v>
       </c>
       <c r="H32" t="n">
-        <v>40.83988085780446</v>
+        <v>40.83988085780447</v>
       </c>
       <c r="I32" t="n">
         <v>153.7389973656055</v>
       </c>
       <c r="J32" t="n">
-        <v>338.4580825538956</v>
+        <v>338.4580825538957</v>
       </c>
       <c r="K32" t="n">
         <v>507.2609295414082</v>
       </c>
       <c r="L32" t="n">
-        <v>629.3020381758067</v>
+        <v>629.3020381758068</v>
       </c>
       <c r="M32" t="n">
         <v>700.2197709921114</v>
@@ -33433,7 +33433,7 @@
         <v>711.550058943996</v>
       </c>
       <c r="O32" t="n">
-        <v>671.8965434766659</v>
+        <v>671.896543476666</v>
       </c>
       <c r="P32" t="n">
         <v>573.4481549814092</v>
@@ -33442,13 +33442,13 @@
         <v>430.6356825566443</v>
       </c>
       <c r="R32" t="n">
-        <v>250.4975628887158</v>
+        <v>250.4975628887159</v>
       </c>
       <c r="S32" t="n">
-        <v>90.87160112752055</v>
+        <v>90.87160112752056</v>
       </c>
       <c r="T32" t="n">
-        <v>17.45651931698172</v>
+        <v>17.45651931698173</v>
       </c>
       <c r="U32" t="n">
         <v>0.3190226260099456</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.133651914404962</v>
+        <v>2.133651914404963</v>
       </c>
       <c r="H33" t="n">
-        <v>20.60658559438477</v>
+        <v>20.60658559438478</v>
       </c>
       <c r="I33" t="n">
-        <v>73.4612610880656</v>
+        <v>73.46126108806561</v>
       </c>
       <c r="J33" t="n">
         <v>201.583315299111</v>
       </c>
       <c r="K33" t="n">
-        <v>344.5379935642434</v>
+        <v>344.5379935642435</v>
       </c>
       <c r="L33" t="n">
-        <v>463.2738509763933</v>
+        <v>463.2738509763934</v>
       </c>
       <c r="M33" t="n">
         <v>540.6187328735731</v>
       </c>
       <c r="N33" t="n">
-        <v>554.9273020714907</v>
+        <v>554.9273020714908</v>
       </c>
       <c r="O33" t="n">
-        <v>507.6500675470438</v>
+        <v>507.6500675470439</v>
       </c>
       <c r="P33" t="n">
         <v>407.4339344270319</v>
       </c>
       <c r="Q33" t="n">
-        <v>272.3587952493071</v>
+        <v>272.3587952493072</v>
       </c>
       <c r="R33" t="n">
         <v>132.4735811417397</v>
       </c>
       <c r="S33" t="n">
-        <v>39.63164849782899</v>
+        <v>39.631648497829</v>
       </c>
       <c r="T33" t="n">
-        <v>8.600114514641051</v>
+        <v>8.600114514641053</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1403718364740107</v>
+        <v>0.1403718364740108</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33582,7 +33582,7 @@
         <v>207.8239556662434</v>
       </c>
       <c r="L34" t="n">
-        <v>265.9431119691507</v>
+        <v>265.9431119691508</v>
       </c>
       <c r="M34" t="n">
         <v>280.3997235956992</v>
@@ -33594,22 +33594,22 @@
         <v>252.8362177385567</v>
       </c>
       <c r="P34" t="n">
-        <v>216.3450630816668</v>
+        <v>216.3450630816669</v>
       </c>
       <c r="Q34" t="n">
         <v>149.786107640201</v>
       </c>
       <c r="R34" t="n">
-        <v>80.43014747458841</v>
+        <v>80.43014747458842</v>
       </c>
       <c r="S34" t="n">
         <v>31.17359334993651</v>
       </c>
       <c r="T34" t="n">
-        <v>7.642978025284382</v>
+        <v>7.642978025284383</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0975699322376731</v>
+        <v>0.09756993223767312</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,19 +33649,19 @@
         <v>3.987782825124321</v>
       </c>
       <c r="H35" t="n">
-        <v>40.83988085780446</v>
+        <v>40.83988085780447</v>
       </c>
       <c r="I35" t="n">
         <v>153.7389973656055</v>
       </c>
       <c r="J35" t="n">
-        <v>338.4580825538956</v>
+        <v>338.4580825538957</v>
       </c>
       <c r="K35" t="n">
         <v>507.2609295414082</v>
       </c>
       <c r="L35" t="n">
-        <v>629.3020381758067</v>
+        <v>629.3020381758068</v>
       </c>
       <c r="M35" t="n">
         <v>700.2197709921114</v>
@@ -33670,7 +33670,7 @@
         <v>711.550058943996</v>
       </c>
       <c r="O35" t="n">
-        <v>671.8965434766659</v>
+        <v>671.896543476666</v>
       </c>
       <c r="P35" t="n">
         <v>573.4481549814092</v>
@@ -33679,13 +33679,13 @@
         <v>430.6356825566443</v>
       </c>
       <c r="R35" t="n">
-        <v>250.4975628887158</v>
+        <v>250.4975628887159</v>
       </c>
       <c r="S35" t="n">
-        <v>90.87160112752055</v>
+        <v>90.87160112752056</v>
       </c>
       <c r="T35" t="n">
-        <v>17.45651931698172</v>
+        <v>17.45651931698173</v>
       </c>
       <c r="U35" t="n">
         <v>0.3190226260099456</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.133651914404962</v>
+        <v>2.133651914404963</v>
       </c>
       <c r="H36" t="n">
-        <v>20.60658559438477</v>
+        <v>20.60658559438478</v>
       </c>
       <c r="I36" t="n">
-        <v>73.4612610880656</v>
+        <v>73.46126108806561</v>
       </c>
       <c r="J36" t="n">
         <v>201.583315299111</v>
       </c>
       <c r="K36" t="n">
-        <v>344.5379935642434</v>
+        <v>344.5379935642435</v>
       </c>
       <c r="L36" t="n">
-        <v>463.2738509763933</v>
+        <v>463.2738509763934</v>
       </c>
       <c r="M36" t="n">
         <v>540.6187328735731</v>
       </c>
       <c r="N36" t="n">
-        <v>554.9273020714907</v>
+        <v>554.9273020714908</v>
       </c>
       <c r="O36" t="n">
-        <v>507.6500675470438</v>
+        <v>507.6500675470439</v>
       </c>
       <c r="P36" t="n">
         <v>407.4339344270319</v>
       </c>
       <c r="Q36" t="n">
-        <v>272.3587952493071</v>
+        <v>272.3587952493072</v>
       </c>
       <c r="R36" t="n">
         <v>132.4735811417397</v>
       </c>
       <c r="S36" t="n">
-        <v>39.63164849782899</v>
+        <v>39.631648497829</v>
       </c>
       <c r="T36" t="n">
-        <v>8.600114514641051</v>
+        <v>8.600114514641053</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1403718364740107</v>
+        <v>0.1403718364740108</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33819,7 +33819,7 @@
         <v>207.8239556662434</v>
       </c>
       <c r="L37" t="n">
-        <v>265.9431119691507</v>
+        <v>265.9431119691508</v>
       </c>
       <c r="M37" t="n">
         <v>280.3997235956992</v>
@@ -33831,22 +33831,22 @@
         <v>252.8362177385567</v>
       </c>
       <c r="P37" t="n">
-        <v>216.3450630816668</v>
+        <v>216.3450630816669</v>
       </c>
       <c r="Q37" t="n">
         <v>149.786107640201</v>
       </c>
       <c r="R37" t="n">
-        <v>80.43014747458841</v>
+        <v>80.43014747458842</v>
       </c>
       <c r="S37" t="n">
         <v>31.17359334993651</v>
       </c>
       <c r="T37" t="n">
-        <v>7.642978025284382</v>
+        <v>7.642978025284383</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0975699322376731</v>
+        <v>0.09756993223767312</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34141,10 +34141,10 @@
         <v>700.2197709921113</v>
       </c>
       <c r="N41" t="n">
-        <v>711.5500589439966</v>
+        <v>711.5500589439959</v>
       </c>
       <c r="O41" t="n">
-        <v>671.8965434766658</v>
+        <v>671.8965434766668</v>
       </c>
       <c r="P41" t="n">
         <v>573.4481549814091</v>
@@ -34375,7 +34375,7 @@
         <v>629.3020381758067</v>
       </c>
       <c r="M44" t="n">
-        <v>700.2197709921123</v>
+        <v>700.2197709921113</v>
       </c>
       <c r="N44" t="n">
         <v>711.5500589439959</v>
@@ -34390,7 +34390,7 @@
         <v>430.6356825566442</v>
       </c>
       <c r="R44" t="n">
-        <v>250.4975628887158</v>
+        <v>250.4975628887168</v>
       </c>
       <c r="S44" t="n">
         <v>90.87160112752053</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K3" t="n">
         <v>186.587496243485</v>
@@ -34793,13 +34793,13 @@
         <v>335.4246819961232</v>
       </c>
       <c r="P3" t="n">
-        <v>418.4229873015972</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977098</v>
+        <v>0.9556134883073677</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.587496243485</v>
+        <v>355.3309544215503</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378504</v>
@@ -35030,7 +35030,7 @@
         <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>418.4229873015977</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>93.34947739681169</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560636</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378504</v>
@@ -35267,10 +35267,10 @@
         <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>302.9297349452394</v>
       </c>
       <c r="R9" t="n">
         <v>24.58388860977098</v>
@@ -35410,16 +35410,16 @@
         <v>157.4121780272093</v>
       </c>
       <c r="K11" t="n">
-        <v>287.1710784964275</v>
+        <v>287.1710784964276</v>
       </c>
       <c r="L11" t="n">
-        <v>393.5356232058194</v>
+        <v>393.5356232058195</v>
       </c>
       <c r="M11" t="n">
-        <v>469.8735377648385</v>
+        <v>469.8735377648386</v>
       </c>
       <c r="N11" t="n">
-        <v>482.1369953474048</v>
+        <v>482.1369953474049</v>
       </c>
       <c r="O11" t="n">
         <v>441.798332054979</v>
@@ -35431,7 +35431,7 @@
         <v>208.3299926821947</v>
       </c>
       <c r="R11" t="n">
-        <v>34.91202507458365</v>
+        <v>34.91202507458368</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>139.0057813268582</v>
+        <v>74.74568863244426</v>
       </c>
       <c r="K12" t="n">
-        <v>471.161791602463</v>
+        <v>216.9591156569395</v>
       </c>
       <c r="L12" t="n">
-        <v>324.719471196519</v>
+        <v>324.7194711965191</v>
       </c>
       <c r="M12" t="n">
         <v>398.4846989515547</v>
       </c>
       <c r="N12" t="n">
-        <v>423.5855899881573</v>
+        <v>423.5855899881574</v>
       </c>
       <c r="O12" t="n">
         <v>365.0538231025993</v>
       </c>
       <c r="P12" t="n">
-        <v>273.4595270127015</v>
+        <v>591.9222956526387</v>
       </c>
       <c r="Q12" t="n">
         <v>132.3770211632856</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.10771371872433</v>
+        <v>33.10771371872434</v>
       </c>
       <c r="K13" t="n">
         <v>185.5544638403605</v>
       </c>
       <c r="L13" t="n">
-        <v>293.5331372294668</v>
+        <v>293.5331372294669</v>
       </c>
       <c r="M13" t="n">
-        <v>319.9836005575397</v>
+        <v>319.9836005575398</v>
       </c>
       <c r="N13" t="n">
-        <v>317.8646172720203</v>
+        <v>317.8646172720204</v>
       </c>
       <c r="O13" t="n">
-        <v>277.4213456525963</v>
+        <v>277.4213456525964</v>
       </c>
       <c r="P13" t="n">
         <v>213.6236223465603</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.62406438850657</v>
+        <v>63.6240643885066</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>157.4121780272093</v>
+        <v>157.4121780272094</v>
       </c>
       <c r="K14" t="n">
-        <v>287.1710784964276</v>
+        <v>287.1710784964277</v>
       </c>
       <c r="L14" t="n">
-        <v>393.5356232058195</v>
+        <v>393.5356232058196</v>
       </c>
       <c r="M14" t="n">
         <v>469.8735377648387</v>
@@ -35659,7 +35659,7 @@
         <v>482.136995347405</v>
       </c>
       <c r="O14" t="n">
-        <v>441.7983320549791</v>
+        <v>441.7983320549793</v>
       </c>
       <c r="P14" t="n">
         <v>342.2151592261396</v>
@@ -35668,7 +35668,7 @@
         <v>208.3299926821948</v>
       </c>
       <c r="R14" t="n">
-        <v>34.91202507458371</v>
+        <v>34.91202507458374</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>74.74568863244428</v>
+        <v>161.0779836144902</v>
       </c>
       <c r="K15" t="n">
-        <v>206.6965545898844</v>
+        <v>206.6965545898845</v>
       </c>
       <c r="L15" t="n">
-        <v>324.7194711965191</v>
+        <v>324.7194711965192</v>
       </c>
       <c r="M15" t="n">
         <v>398.4846989515548</v>
       </c>
       <c r="N15" t="n">
-        <v>423.5855899881574</v>
+        <v>423.5855899881575</v>
       </c>
       <c r="O15" t="n">
-        <v>483.7018650737422</v>
+        <v>365.0538231025995</v>
       </c>
       <c r="P15" t="n">
         <v>273.4595270127016</v>
       </c>
       <c r="Q15" t="n">
-        <v>342.4543088991347</v>
+        <v>342.4543088991348</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>32.31574698909661</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.10771371872436</v>
+        <v>33.10771371872437</v>
       </c>
       <c r="K16" t="n">
         <v>185.5544638403606</v>
@@ -35820,7 +35820,7 @@
         <v>277.4213456525964</v>
       </c>
       <c r="P16" t="n">
-        <v>213.6236223465603</v>
+        <v>213.6236223465604</v>
       </c>
       <c r="Q16" t="n">
         <v>63.62406438850662</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>157.4121780272093</v>
+        <v>157.4121780272094</v>
       </c>
       <c r="K17" t="n">
-        <v>287.1710784964276</v>
+        <v>287.1710784964277</v>
       </c>
       <c r="L17" t="n">
-        <v>393.5356232058195</v>
+        <v>393.5356232058196</v>
       </c>
       <c r="M17" t="n">
         <v>469.8735377648387</v>
@@ -35896,7 +35896,7 @@
         <v>482.136995347405</v>
       </c>
       <c r="O17" t="n">
-        <v>441.7983320549791</v>
+        <v>441.7983320549793</v>
       </c>
       <c r="P17" t="n">
         <v>342.2151592261396</v>
@@ -35905,7 +35905,7 @@
         <v>208.3299926821948</v>
       </c>
       <c r="R17" t="n">
-        <v>34.91202507458371</v>
+        <v>34.91202507458374</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>200.8367239728531</v>
+        <v>193.3937306035866</v>
       </c>
       <c r="K18" t="n">
-        <v>409.3308489564675</v>
+        <v>206.6965545898845</v>
       </c>
       <c r="L18" t="n">
-        <v>324.7194711965191</v>
+        <v>324.7194711965192</v>
       </c>
       <c r="M18" t="n">
         <v>398.4846989515548</v>
       </c>
       <c r="N18" t="n">
-        <v>423.5855899881574</v>
+        <v>423.5855899881575</v>
       </c>
       <c r="O18" t="n">
-        <v>365.0538231025994</v>
+        <v>365.0538231025995</v>
       </c>
       <c r="P18" t="n">
         <v>273.4595270127016</v>
       </c>
       <c r="Q18" t="n">
-        <v>132.3770211632856</v>
+        <v>342.4543088991348</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.10771371872436</v>
+        <v>33.10771371872437</v>
       </c>
       <c r="K19" t="n">
         <v>185.5544638403606</v>
@@ -36057,7 +36057,7 @@
         <v>277.4213456525964</v>
       </c>
       <c r="P19" t="n">
-        <v>213.6236223465603</v>
+        <v>213.6236223465604</v>
       </c>
       <c r="Q19" t="n">
         <v>63.62406438850662</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>157.4121780272093</v>
+        <v>157.4121780272094</v>
       </c>
       <c r="K20" t="n">
-        <v>287.1710784964276</v>
+        <v>287.1710784964277</v>
       </c>
       <c r="L20" t="n">
-        <v>393.5356232058195</v>
+        <v>393.5356232058196</v>
       </c>
       <c r="M20" t="n">
         <v>469.8735377648387</v>
@@ -36133,7 +36133,7 @@
         <v>482.136995347405</v>
       </c>
       <c r="O20" t="n">
-        <v>441.7983320549791</v>
+        <v>441.7983320549793</v>
       </c>
       <c r="P20" t="n">
         <v>342.2151592261396</v>
@@ -36142,7 +36142,7 @@
         <v>208.3299926821948</v>
       </c>
       <c r="R20" t="n">
-        <v>34.91202507458371</v>
+        <v>34.91202507458374</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>200.8367239728531</v>
+        <v>200.8367239728532</v>
       </c>
       <c r="K21" t="n">
-        <v>206.6965545898844</v>
+        <v>206.6965545898845</v>
       </c>
       <c r="L21" t="n">
-        <v>324.7194711965191</v>
+        <v>324.7194711965192</v>
       </c>
       <c r="M21" t="n">
-        <v>601.1189933181379</v>
+        <v>398.4846989515548</v>
       </c>
       <c r="N21" t="n">
-        <v>423.5855899881574</v>
+        <v>423.5855899881575</v>
       </c>
       <c r="O21" t="n">
-        <v>365.0538231025994</v>
+        <v>365.0538231025995</v>
       </c>
       <c r="P21" t="n">
         <v>273.4595270127016</v>
       </c>
       <c r="Q21" t="n">
-        <v>132.3770211632856</v>
+        <v>335.0113155298684</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.10771371872436</v>
+        <v>33.10771371872437</v>
       </c>
       <c r="K22" t="n">
         <v>185.5544638403606</v>
@@ -36294,7 +36294,7 @@
         <v>277.4213456525964</v>
       </c>
       <c r="P22" t="n">
-        <v>213.6236223465603</v>
+        <v>213.6236223465604</v>
       </c>
       <c r="Q22" t="n">
         <v>63.62406438850662</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>157.4121780272093</v>
+        <v>157.41217802721</v>
       </c>
       <c r="K23" t="n">
-        <v>287.1710784964276</v>
+        <v>287.1710784964277</v>
       </c>
       <c r="L23" t="n">
-        <v>393.5356232058195</v>
+        <v>393.5356232058196</v>
       </c>
       <c r="M23" t="n">
         <v>469.8735377648387</v>
@@ -36370,7 +36370,7 @@
         <v>482.136995347405</v>
       </c>
       <c r="O23" t="n">
-        <v>441.7983320549791</v>
+        <v>441.7983320549793</v>
       </c>
       <c r="P23" t="n">
         <v>342.2151592261396</v>
@@ -36379,7 +36379,7 @@
         <v>208.3299926821948</v>
       </c>
       <c r="R23" t="n">
-        <v>34.91202507458371</v>
+        <v>34.91202507458374</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>74.74568863244428</v>
+        <v>200.8367239728532</v>
       </c>
       <c r="K24" t="n">
-        <v>206.6965545898844</v>
+        <v>206.6965545898845</v>
       </c>
       <c r="L24" t="n">
-        <v>324.7194711965191</v>
+        <v>324.7194711965192</v>
       </c>
       <c r="M24" t="n">
         <v>398.4846989515548</v>
       </c>
       <c r="N24" t="n">
-        <v>423.5855899881574</v>
+        <v>626.2198843547403</v>
       </c>
       <c r="O24" t="n">
-        <v>365.0538231025994</v>
+        <v>365.0538231025995</v>
       </c>
       <c r="P24" t="n">
-        <v>591.9222956526388</v>
+        <v>273.4595270127016</v>
       </c>
       <c r="Q24" t="n">
-        <v>142.6395822303409</v>
+        <v>132.3770211632857</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.10771371872436</v>
+        <v>33.10771371872437</v>
       </c>
       <c r="K25" t="n">
         <v>185.5544638403606</v>
@@ -36531,7 +36531,7 @@
         <v>277.4213456525964</v>
       </c>
       <c r="P25" t="n">
-        <v>213.6236223465603</v>
+        <v>213.6236223465604</v>
       </c>
       <c r="Q25" t="n">
         <v>63.62406438850662</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>157.4121780272093</v>
+        <v>157.4121780272094</v>
       </c>
       <c r="K26" t="n">
-        <v>287.1710784964276</v>
+        <v>287.1710784964277</v>
       </c>
       <c r="L26" t="n">
-        <v>393.5356232058195</v>
+        <v>393.5356232058196</v>
       </c>
       <c r="M26" t="n">
         <v>469.8735377648387</v>
@@ -36607,7 +36607,7 @@
         <v>482.136995347405</v>
       </c>
       <c r="O26" t="n">
-        <v>441.7983320549791</v>
+        <v>441.7983320549793</v>
       </c>
       <c r="P26" t="n">
         <v>342.2151592261396</v>
@@ -36616,7 +36616,7 @@
         <v>208.3299926821948</v>
       </c>
       <c r="R26" t="n">
-        <v>34.91202507458371</v>
+        <v>34.91202507458374</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>193.3937306035872</v>
+        <v>200.8367239728532</v>
       </c>
       <c r="K27" t="n">
-        <v>206.6965545898844</v>
+        <v>206.6965545898845</v>
       </c>
       <c r="L27" t="n">
-        <v>324.7194711965191</v>
+        <v>324.7194711965192</v>
       </c>
       <c r="M27" t="n">
         <v>398.4846989515548</v>
       </c>
       <c r="N27" t="n">
-        <v>423.5855899881574</v>
+        <v>423.5855899881575</v>
       </c>
       <c r="O27" t="n">
-        <v>365.0538231025994</v>
+        <v>567.6881174691824</v>
       </c>
       <c r="P27" t="n">
         <v>273.4595270127016</v>
       </c>
       <c r="Q27" t="n">
-        <v>342.4543088991347</v>
+        <v>132.3770211632857</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.10771371872436</v>
+        <v>33.10771371872437</v>
       </c>
       <c r="K28" t="n">
         <v>185.5544638403606</v>
@@ -36768,7 +36768,7 @@
         <v>277.4213456525964</v>
       </c>
       <c r="P28" t="n">
-        <v>213.6236223465603</v>
+        <v>213.6236223465604</v>
       </c>
       <c r="Q28" t="n">
         <v>63.62406438850662</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>157.4121780272093</v>
+        <v>157.4121780272094</v>
       </c>
       <c r="K29" t="n">
-        <v>287.1710784964276</v>
+        <v>287.1710784964277</v>
       </c>
       <c r="L29" t="n">
-        <v>393.5356232058195</v>
+        <v>393.5356232058196</v>
       </c>
       <c r="M29" t="n">
         <v>469.8735377648387</v>
@@ -36844,7 +36844,7 @@
         <v>482.136995347405</v>
       </c>
       <c r="O29" t="n">
-        <v>441.7983320549791</v>
+        <v>441.7983320549793</v>
       </c>
       <c r="P29" t="n">
         <v>342.2151592261396</v>
@@ -36853,7 +36853,7 @@
         <v>208.3299926821948</v>
       </c>
       <c r="R29" t="n">
-        <v>34.91202507458371</v>
+        <v>34.91202507458374</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>161.0779836144907</v>
+        <v>200.8367239728532</v>
       </c>
       <c r="K30" t="n">
-        <v>206.6965545898844</v>
+        <v>206.6965545898845</v>
       </c>
       <c r="L30" t="n">
-        <v>324.7194711965191</v>
+        <v>324.7194711965192</v>
       </c>
       <c r="M30" t="n">
         <v>398.4846989515548</v>
       </c>
       <c r="N30" t="n">
-        <v>423.5855899881574</v>
+        <v>423.5855899881575</v>
       </c>
       <c r="O30" t="n">
-        <v>365.0538231025994</v>
+        <v>365.0538231025995</v>
       </c>
       <c r="P30" t="n">
         <v>273.4595270127016</v>
       </c>
       <c r="Q30" t="n">
-        <v>342.4543088991347</v>
+        <v>335.0113155298689</v>
       </c>
       <c r="R30" t="n">
-        <v>32.31574698909661</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.10771371872436</v>
+        <v>33.10771371872437</v>
       </c>
       <c r="K31" t="n">
         <v>185.5544638403606</v>
@@ -37005,7 +37005,7 @@
         <v>277.4213456525964</v>
       </c>
       <c r="P31" t="n">
-        <v>213.6236223465603</v>
+        <v>213.6236223465604</v>
       </c>
       <c r="Q31" t="n">
         <v>63.62406438850662</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>157.4121780272093</v>
+        <v>157.4121780272094</v>
       </c>
       <c r="K32" t="n">
-        <v>287.1710784964276</v>
+        <v>287.1710784964277</v>
       </c>
       <c r="L32" t="n">
-        <v>393.5356232058195</v>
+        <v>393.5356232058196</v>
       </c>
       <c r="M32" t="n">
         <v>469.8735377648387</v>
@@ -37081,7 +37081,7 @@
         <v>482.136995347405</v>
       </c>
       <c r="O32" t="n">
-        <v>441.7983320549791</v>
+        <v>441.7983320549793</v>
       </c>
       <c r="P32" t="n">
         <v>342.2151592261396</v>
@@ -37090,7 +37090,7 @@
         <v>208.3299926821948</v>
       </c>
       <c r="R32" t="n">
-        <v>34.91202507458371</v>
+        <v>34.91202507458374</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>193.3937306035872</v>
+        <v>139.0057813268573</v>
       </c>
       <c r="K33" t="n">
-        <v>206.6965545898844</v>
+        <v>471.1617916024631</v>
       </c>
       <c r="L33" t="n">
-        <v>324.7194711965191</v>
+        <v>324.7194711965192</v>
       </c>
       <c r="M33" t="n">
         <v>398.4846989515548</v>
       </c>
       <c r="N33" t="n">
-        <v>423.5855899881574</v>
+        <v>423.5855899881575</v>
       </c>
       <c r="O33" t="n">
-        <v>365.0538231025994</v>
+        <v>365.0538231025995</v>
       </c>
       <c r="P33" t="n">
         <v>273.4595270127016</v>
       </c>
       <c r="Q33" t="n">
-        <v>342.4543088991347</v>
+        <v>132.3770211632857</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.10771371872436</v>
+        <v>33.10771371872437</v>
       </c>
       <c r="K34" t="n">
         <v>185.5544638403606</v>
@@ -37242,7 +37242,7 @@
         <v>277.4213456525964</v>
       </c>
       <c r="P34" t="n">
-        <v>213.6236223465603</v>
+        <v>213.6236223465604</v>
       </c>
       <c r="Q34" t="n">
         <v>63.62406438850662</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>157.4121780272093</v>
+        <v>157.4121780272094</v>
       </c>
       <c r="K35" t="n">
-        <v>287.1710784964276</v>
+        <v>287.1710784964277</v>
       </c>
       <c r="L35" t="n">
-        <v>393.5356232058195</v>
+        <v>393.5356232058196</v>
       </c>
       <c r="M35" t="n">
         <v>469.8735377648387</v>
@@ -37318,7 +37318,7 @@
         <v>482.136995347405</v>
       </c>
       <c r="O35" t="n">
-        <v>441.7983320549791</v>
+        <v>441.7983320549793</v>
       </c>
       <c r="P35" t="n">
         <v>342.2151592261396</v>
@@ -37327,7 +37327,7 @@
         <v>208.3299926821948</v>
       </c>
       <c r="R35" t="n">
-        <v>34.91202507458371</v>
+        <v>34.91202507458374</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>193.3937306035872</v>
+        <v>193.3937306035866</v>
       </c>
       <c r="K36" t="n">
-        <v>206.6965545898844</v>
+        <v>206.6965545898845</v>
       </c>
       <c r="L36" t="n">
-        <v>324.7194711965191</v>
+        <v>324.7194711965192</v>
       </c>
       <c r="M36" t="n">
         <v>398.4846989515548</v>
       </c>
       <c r="N36" t="n">
-        <v>423.5855899881574</v>
+        <v>423.5855899881575</v>
       </c>
       <c r="O36" t="n">
-        <v>365.0538231025994</v>
+        <v>365.0538231025995</v>
       </c>
       <c r="P36" t="n">
         <v>273.4595270127016</v>
       </c>
       <c r="Q36" t="n">
-        <v>342.4543088991347</v>
+        <v>342.4543088991348</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.10771371872436</v>
+        <v>33.10771371872437</v>
       </c>
       <c r="K37" t="n">
         <v>185.5544638403606</v>
@@ -37479,7 +37479,7 @@
         <v>277.4213456525964</v>
       </c>
       <c r="P37" t="n">
-        <v>213.6236223465603</v>
+        <v>213.6236223465604</v>
       </c>
       <c r="Q37" t="n">
         <v>63.62406438850662</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>200.8367239728531</v>
+        <v>193.3937306035873</v>
       </c>
       <c r="K39" t="n">
         <v>206.6965545898844</v>
@@ -37640,10 +37640,10 @@
         <v>273.4595270127016</v>
       </c>
       <c r="Q39" t="n">
-        <v>302.6955685407729</v>
+        <v>342.4543088991347</v>
       </c>
       <c r="R39" t="n">
-        <v>32.31574698909658</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,10 +37789,10 @@
         <v>469.8735377648386</v>
       </c>
       <c r="N41" t="n">
-        <v>482.1369953474057</v>
+        <v>482.1369953474049</v>
       </c>
       <c r="O41" t="n">
-        <v>441.798332054979</v>
+        <v>441.7983320549801</v>
       </c>
       <c r="P41" t="n">
         <v>342.2151592261395</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>161.0779836144909</v>
+        <v>193.3937306035873</v>
       </c>
       <c r="K42" t="n">
         <v>206.6965545898844</v>
@@ -37880,7 +37880,7 @@
         <v>342.4543088991347</v>
       </c>
       <c r="R42" t="n">
-        <v>32.31574698909658</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>393.5356232058195</v>
       </c>
       <c r="M44" t="n">
-        <v>469.8735377648396</v>
+        <v>469.8735377648386</v>
       </c>
       <c r="N44" t="n">
         <v>482.1369953474049</v>
@@ -38038,7 +38038,7 @@
         <v>208.3299926821947</v>
       </c>
       <c r="R44" t="n">
-        <v>34.91202507458368</v>
+        <v>34.91202507458468</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>193.3937306035874</v>
+        <v>193.3937306035873</v>
       </c>
       <c r="K45" t="n">
         <v>206.6965545898844</v>
